--- a/State Table.xlsx
+++ b/State Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="96">
   <si>
     <t>INPUT</t>
   </si>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2491,666 +2491,1197 @@
       <c r="A74" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B74" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C74" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="11"/>
+      <c r="D74" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B75" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C75" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D75" s="11"/>
+      <c r="D75" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F75" s="13"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B76" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C76" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.25</v>
+      </c>
       <c r="F76" s="13"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B77" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C77" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="11"/>
+      <c r="D77" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
       <c r="F77" s="13"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B78" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C78" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D78" s="11"/>
+      <c r="D78" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B79" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C79" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="11"/>
+      <c r="D79" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B80" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C80" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D80" s="11"/>
+      <c r="D80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1</v>
+      </c>
       <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B81" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C81" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F81" s="13"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B82" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C82" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="11"/>
+      <c r="D82" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F82" s="13"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B83" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C83" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="11"/>
+      <c r="D83" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.25</v>
+      </c>
       <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B84" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C84" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D84" s="11"/>
+      <c r="D84" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
       <c r="F84" s="13"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B85" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C85" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="11"/>
+      <c r="D85" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
       <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B86" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C86" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="11"/>
+      <c r="D86" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F86" s="13"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B87" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C87" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D87" s="11"/>
+      <c r="D87" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
       <c r="F87" s="13"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B88" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C88" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="11"/>
+      <c r="D88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F88" s="13"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B89" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C89" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="11"/>
+      <c r="D89" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F89" s="13"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B90" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C90" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="11"/>
+      <c r="D90" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0.25</v>
+      </c>
       <c r="F90" s="13"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B91" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C91" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="11"/>
+      <c r="D91" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
       <c r="F91" s="13"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B92" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C92" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D92" s="11"/>
+      <c r="D92" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1.75</v>
+      </c>
       <c r="F92" s="13"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B93" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C93" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D93" s="11"/>
+      <c r="D93" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B94" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C94" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D94" s="11"/>
+      <c r="D94" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F94" s="13"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B95" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C95" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="11"/>
+      <c r="D95" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
       <c r="F95" s="13"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B96" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C96" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D96" s="11"/>
+      <c r="D96" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F96" s="13"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="B97" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C97" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="11"/>
+      <c r="D97" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
       <c r="F97" s="13"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B98" s="20">
+        <v>1</v>
+      </c>
       <c r="C98" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D98" s="8"/>
+      <c r="D98" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
       <c r="F98" s="10"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B99" s="20">
+        <v>1</v>
+      </c>
       <c r="C99" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D99" s="8"/>
+      <c r="D99" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F99" s="10"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B100" s="20">
+        <v>1</v>
+      </c>
       <c r="C100" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D100" s="8"/>
+      <c r="D100" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F100" s="10"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B101" s="20">
+        <v>1</v>
+      </c>
       <c r="C101" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D101" s="8"/>
+      <c r="D101" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0.25</v>
+      </c>
       <c r="F101" s="10"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B102" s="20">
+        <v>1</v>
+      </c>
       <c r="C102" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D102" s="8"/>
+      <c r="D102" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
       <c r="F102" s="10"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B103" s="20">
+        <v>1</v>
+      </c>
       <c r="C103" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D103" s="8"/>
+      <c r="D103" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
       <c r="F103" s="10"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B104" s="20">
+        <v>1</v>
+      </c>
       <c r="C104" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D104" s="8"/>
+      <c r="D104" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F104" s="10"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B105" s="20">
+        <v>1</v>
+      </c>
       <c r="C105" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="8"/>
+      <c r="D105" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1</v>
+      </c>
       <c r="F105" s="10"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B106" s="20">
+        <v>1</v>
+      </c>
       <c r="C106" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="8"/>
+      <c r="D106" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B107" s="20">
+        <v>1</v>
+      </c>
       <c r="C107" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D107" s="8"/>
+      <c r="D107" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F107" s="10"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B108" s="20">
+        <v>1</v>
+      </c>
       <c r="C108" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D108" s="8"/>
+      <c r="D108" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0.25</v>
+      </c>
       <c r="F108" s="10"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B109" s="20">
+        <v>1</v>
+      </c>
       <c r="C109" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D109" s="8"/>
+      <c r="D109" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
       <c r="F109" s="10"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B110" s="20">
+        <v>1</v>
+      </c>
       <c r="C110" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D110" s="8"/>
+      <c r="D110" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F110" s="10"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B111" s="20">
+        <v>1</v>
+      </c>
       <c r="C111" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D111" s="8"/>
+      <c r="D111" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F111" s="10"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B112" s="20">
+        <v>1</v>
+      </c>
       <c r="C112" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D112" s="8"/>
+      <c r="D112" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1</v>
+      </c>
       <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B113" s="20">
+        <v>1</v>
+      </c>
       <c r="C113" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D113" s="8"/>
+      <c r="D113" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F113" s="10"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B114" s="20">
+        <v>1</v>
+      </c>
       <c r="C114" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="8"/>
+      <c r="D114" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F114" s="10"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B115" s="20">
+        <v>1</v>
+      </c>
       <c r="C115" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="8"/>
+      <c r="D115" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
       <c r="F115" s="10"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B116" s="20">
+        <v>1</v>
+      </c>
       <c r="C116" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D116" s="8"/>
+      <c r="D116" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2</v>
+      </c>
       <c r="F116" s="10"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B117" s="20">
+        <v>1</v>
+      </c>
       <c r="C117" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D117" s="8"/>
+      <c r="D117" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
       <c r="F117" s="10"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B118" s="20">
+        <v>1</v>
+      </c>
       <c r="C118" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D118" s="8"/>
+      <c r="D118" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1.75</v>
+      </c>
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B119" s="20">
+        <v>1</v>
+      </c>
       <c r="C119" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D119" s="8"/>
+      <c r="D119" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F119" s="10"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B120" s="20">
+        <v>1</v>
+      </c>
       <c r="C120" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D120" s="8"/>
+      <c r="D120" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F120" s="10"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B121" s="20">
+        <v>1</v>
+      </c>
       <c r="C121" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D121" s="8"/>
+      <c r="D121" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
       <c r="F121" s="10"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B122" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C122" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D122" s="11"/>
+      <c r="D122" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F122" s="13"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B123" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C123" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D123" s="11"/>
+      <c r="D123" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
       <c r="F123" s="13"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B124" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C124" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D124" s="11"/>
+      <c r="D124" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F124" s="13"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B125" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C125" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D125" s="11"/>
+      <c r="D125" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F125" s="13"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B126" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C126" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D126" s="11"/>
+      <c r="D126" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E126" s="4">
+        <v>0.25</v>
+      </c>
       <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B127" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C127" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D127" s="11"/>
+      <c r="D127" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
       <c r="F127" s="13"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B128" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C128" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="11"/>
+      <c r="D128" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F128" s="13"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B129" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C129" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D129" s="11"/>
+      <c r="D129" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F129" s="13"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B130" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C130" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D130" s="11"/>
+      <c r="D130" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130" s="4">
+        <v>1</v>
+      </c>
       <c r="F130" s="13"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B131" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C131" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D131" s="11"/>
+      <c r="D131" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F131" s="13"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B132" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C132" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D132" s="11"/>
+      <c r="D132" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F132" s="13"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B133" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C133" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D133" s="11"/>
+      <c r="D133" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
       <c r="F133" s="13"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B134" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C134" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D134" s="11"/>
+      <c r="D134" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="4">
+        <v>1.75</v>
+      </c>
       <c r="F134" s="13"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B135" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C135" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D135" s="11"/>
+      <c r="D135" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F135" s="13"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B136" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C136" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D136" s="11"/>
+      <c r="D136" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F136" s="13"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B137" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C137" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D137" s="11"/>
+      <c r="D137" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
       <c r="F137" s="13"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B138" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C138" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D138" s="11"/>
+      <c r="D138" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F138" s="13"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B139" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C139" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D139" s="11"/>
+      <c r="D139" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
       <c r="F139" s="13"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B140" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C140" s="12" t="s">
         <v>55</v>
       </c>
@@ -3161,6 +3692,9 @@
       <c r="A141" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B141" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C141" s="12" t="s">
         <v>56</v>
       </c>
@@ -3171,6 +3705,9 @@
       <c r="A142" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B142" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C142" s="12" t="s">
         <v>57</v>
       </c>
@@ -3181,6 +3718,9 @@
       <c r="A143" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B143" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C143" s="12" t="s">
         <v>58</v>
       </c>
@@ -3191,6 +3731,9 @@
       <c r="A144" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B144" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C144" s="12" t="s">
         <v>59</v>
       </c>
@@ -3201,6 +3744,9 @@
       <c r="A145" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="B145" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C145" s="12" t="s">
         <v>60</v>
       </c>
@@ -3211,186 +3757,333 @@
       <c r="A146" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B146" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C146" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D146" s="8"/>
+      <c r="D146" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B147" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C147" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D147" s="8"/>
+      <c r="D147" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E147" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B148" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C148" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D148" s="8"/>
+      <c r="D148" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E148" s="4">
+        <v>1</v>
+      </c>
       <c r="F148" s="10"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B149" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C149" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D149" s="8"/>
+      <c r="D149" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F149" s="10"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B150" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C150" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="8"/>
+      <c r="D150" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E150" s="4">
+        <v>0.5</v>
+      </c>
       <c r="F150" s="10"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B151" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C151" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D151" s="8"/>
+      <c r="D151" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" s="4">
+        <v>0</v>
+      </c>
       <c r="F151" s="10"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B152" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C152" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D152" s="8"/>
+      <c r="D152" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1.75</v>
+      </c>
       <c r="F152" s="10"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B153" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C153" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D153" s="8"/>
+      <c r="D153" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B154" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C154" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D154" s="8"/>
+      <c r="D154" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F154" s="10"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B155" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C155" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D155" s="8"/>
+      <c r="D155" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E155" s="4">
+        <v>1</v>
+      </c>
       <c r="F155" s="10"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B156" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C156" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D156" s="8"/>
+      <c r="D156" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F156" s="10"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B157" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C157" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D157" s="8"/>
+      <c r="D157" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
       <c r="F157" s="10"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B158" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C158" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D158" s="8"/>
+      <c r="D158" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="4">
+        <v>2</v>
+      </c>
       <c r="F158" s="10"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B159" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C159" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D159" s="8"/>
+      <c r="D159" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1.75</v>
+      </c>
       <c r="F159" s="10"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B160" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C160" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D160" s="8"/>
+      <c r="D160" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B161" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C161" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D161" s="8"/>
+      <c r="D161" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F161" s="10"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B162" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C162" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D162" s="8"/>
+      <c r="D162" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
       <c r="F162" s="10"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B163" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C163" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D163" s="8"/>
+      <c r="D163" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
       <c r="F163" s="10"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B164" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C164" s="9" t="s">
         <v>55</v>
       </c>
@@ -3401,6 +4094,9 @@
       <c r="A165" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B165" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C165" s="9" t="s">
         <v>56</v>
       </c>
@@ -3411,6 +4107,9 @@
       <c r="A166" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B166" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C166" s="9" t="s">
         <v>57</v>
       </c>
@@ -3421,6 +4120,9 @@
       <c r="A167" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B167" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C167" s="9" t="s">
         <v>58</v>
       </c>
@@ -3431,6 +4133,9 @@
       <c r="A168" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B168" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C168" s="9" t="s">
         <v>59</v>
       </c>
@@ -3441,6 +4146,9 @@
       <c r="A169" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="B169" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C169" s="9" t="s">
         <v>60</v>
       </c>
@@ -3451,126 +4159,225 @@
       <c r="A170" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B170" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C170" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D170" s="11"/>
+      <c r="D170" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1.75</v>
+      </c>
       <c r="F170" s="13"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B171" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C171" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D171" s="11"/>
+      <c r="D171" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F171" s="13"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B172" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C172" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D172" s="11"/>
+      <c r="D172" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F172" s="13"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B173" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C173" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D173" s="11"/>
+      <c r="D173" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E173" s="4">
+        <v>1</v>
+      </c>
       <c r="F173" s="13"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B174" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C174" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D174" s="11"/>
+      <c r="D174" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0.75</v>
+      </c>
       <c r="F174" s="13"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B175" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C175" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D175" s="11"/>
+      <c r="D175" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
       <c r="F175" s="13"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B176" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C176" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D176" s="11"/>
+      <c r="D176" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E176" s="4">
+        <v>2</v>
+      </c>
       <c r="F176" s="13"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B177" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C177" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D177" s="11"/>
+      <c r="D177" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1.75</v>
+      </c>
       <c r="F177" s="13"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B178" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C178" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D178" s="11"/>
+      <c r="D178" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E178" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F178" s="13"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B179" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C179" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D179" s="11"/>
+      <c r="D179" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E179" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F179" s="13"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B180" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C180" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D180" s="11"/>
+      <c r="D180" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E180" s="4">
+        <v>1</v>
+      </c>
       <c r="F180" s="13"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B181" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C181" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D181" s="11"/>
+      <c r="D181" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0</v>
+      </c>
       <c r="F181" s="13"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B182" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C182" s="12" t="s">
         <v>49</v>
       </c>
@@ -3581,6 +4388,9 @@
       <c r="A183" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B183" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C183" s="12" t="s">
         <v>50</v>
       </c>
@@ -3591,6 +4401,9 @@
       <c r="A184" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B184" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C184" s="12" t="s">
         <v>51</v>
       </c>
@@ -3601,6 +4414,9 @@
       <c r="A185" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B185" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C185" s="12" t="s">
         <v>52</v>
       </c>
@@ -3611,6 +4427,9 @@
       <c r="A186" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B186" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C186" s="12" t="s">
         <v>53</v>
       </c>
@@ -3621,6 +4440,9 @@
       <c r="A187" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B187" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C187" s="12" t="s">
         <v>54</v>
       </c>
@@ -3631,6 +4453,9 @@
       <c r="A188" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B188" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C188" s="12" t="s">
         <v>55</v>
       </c>
@@ -3641,6 +4466,9 @@
       <c r="A189" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B189" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C189" s="12" t="s">
         <v>56</v>
       </c>
@@ -3651,6 +4479,9 @@
       <c r="A190" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B190" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C190" s="12" t="s">
         <v>57</v>
       </c>
@@ -3661,6 +4492,9 @@
       <c r="A191" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B191" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C191" s="12" t="s">
         <v>58</v>
       </c>
@@ -3671,6 +4505,9 @@
       <c r="A192" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B192" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C192" s="12" t="s">
         <v>59</v>
       </c>
@@ -3681,6 +4518,9 @@
       <c r="A193" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="B193" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C193" s="12" t="s">
         <v>60</v>
       </c>
@@ -3691,66 +4531,117 @@
       <c r="A194" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B194" s="20">
+        <v>2</v>
+      </c>
       <c r="C194" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D194" s="8"/>
+      <c r="D194" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E194" s="4">
+        <v>2</v>
+      </c>
       <c r="F194" s="10"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B195" s="20">
+        <v>2</v>
+      </c>
       <c r="C195" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D195" s="8"/>
+      <c r="D195" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E195" s="4">
+        <v>1.75</v>
+      </c>
       <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B196" s="20">
+        <v>2</v>
+      </c>
       <c r="C196" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D196" s="8"/>
+      <c r="D196" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E196" s="4">
+        <v>1.5</v>
+      </c>
       <c r="F196" s="10"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B197" s="20">
+        <v>2</v>
+      </c>
       <c r="C197" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D197" s="8"/>
+      <c r="D197" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E197" s="4">
+        <v>1.25</v>
+      </c>
       <c r="F197" s="10"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B198" s="20">
+        <v>2</v>
+      </c>
       <c r="C198" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D198" s="8"/>
+      <c r="D198" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E198" s="4">
+        <v>1</v>
+      </c>
       <c r="F198" s="10"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B199" s="20">
+        <v>2</v>
+      </c>
       <c r="C199" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D199" s="8"/>
+      <c r="D199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199" s="4">
+        <v>0</v>
+      </c>
       <c r="F199" s="10"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B200" s="20">
+        <v>2</v>
+      </c>
       <c r="C200" s="9" t="s">
         <v>43</v>
       </c>
@@ -3761,6 +4652,9 @@
       <c r="A201" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B201" s="20">
+        <v>2</v>
+      </c>
       <c r="C201" s="9" t="s">
         <v>44</v>
       </c>
@@ -3771,6 +4665,9 @@
       <c r="A202" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B202" s="20">
+        <v>2</v>
+      </c>
       <c r="C202" s="9" t="s">
         <v>45</v>
       </c>
@@ -3781,6 +4678,9 @@
       <c r="A203" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B203" s="20">
+        <v>2</v>
+      </c>
       <c r="C203" s="9" t="s">
         <v>46</v>
       </c>
@@ -3791,6 +4691,9 @@
       <c r="A204" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B204" s="20">
+        <v>2</v>
+      </c>
       <c r="C204" s="9" t="s">
         <v>47</v>
       </c>
@@ -3801,6 +4704,9 @@
       <c r="A205" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B205" s="20">
+        <v>2</v>
+      </c>
       <c r="C205" s="9" t="s">
         <v>48</v>
       </c>
@@ -3811,6 +4717,9 @@
       <c r="A206" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B206" s="20">
+        <v>2</v>
+      </c>
       <c r="C206" s="9" t="s">
         <v>49</v>
       </c>
@@ -3821,6 +4730,9 @@
       <c r="A207" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B207" s="20">
+        <v>2</v>
+      </c>
       <c r="C207" s="9" t="s">
         <v>50</v>
       </c>
@@ -3831,6 +4743,9 @@
       <c r="A208" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B208" s="20">
+        <v>2</v>
+      </c>
       <c r="C208" s="9" t="s">
         <v>51</v>
       </c>
@@ -3841,6 +4756,9 @@
       <c r="A209" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B209" s="20">
+        <v>2</v>
+      </c>
       <c r="C209" s="9" t="s">
         <v>52</v>
       </c>
@@ -3851,6 +4769,9 @@
       <c r="A210" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B210" s="20">
+        <v>2</v>
+      </c>
       <c r="C210" s="9" t="s">
         <v>53</v>
       </c>
@@ -3861,6 +4782,9 @@
       <c r="A211" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B211" s="20">
+        <v>2</v>
+      </c>
       <c r="C211" s="9" t="s">
         <v>54</v>
       </c>
@@ -3871,6 +4795,9 @@
       <c r="A212" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B212" s="20">
+        <v>2</v>
+      </c>
       <c r="C212" s="9" t="s">
         <v>55</v>
       </c>
@@ -3881,6 +4808,9 @@
       <c r="A213" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B213" s="20">
+        <v>2</v>
+      </c>
       <c r="C213" s="9" t="s">
         <v>56</v>
       </c>
@@ -3891,6 +4821,9 @@
       <c r="A214" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B214" s="20">
+        <v>2</v>
+      </c>
       <c r="C214" s="9" t="s">
         <v>57</v>
       </c>
@@ -3901,6 +4834,9 @@
       <c r="A215" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B215" s="20">
+        <v>2</v>
+      </c>
       <c r="C215" s="9" t="s">
         <v>58</v>
       </c>
@@ -3911,6 +4847,9 @@
       <c r="A216" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B216" s="20">
+        <v>2</v>
+      </c>
       <c r="C216" s="9" t="s">
         <v>59</v>
       </c>
@@ -3921,6 +4860,9 @@
       <c r="A217" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="B217" s="20">
+        <v>2</v>
+      </c>
       <c r="C217" s="9" t="s">
         <v>60</v>
       </c>
@@ -3931,1920 +4873,3456 @@
       <c r="A218" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B218" s="20">
+        <v>0</v>
+      </c>
       <c r="C218" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D218" s="11"/>
+      <c r="D218" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E218" s="4">
+        <v>0</v>
+      </c>
       <c r="F218" s="13"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B219" s="20">
+        <v>0</v>
+      </c>
       <c r="C219" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D219" s="11"/>
+      <c r="D219" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E219" s="4">
+        <v>0</v>
+      </c>
       <c r="F219" s="13"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B220" s="20">
+        <v>0</v>
+      </c>
       <c r="C220" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D220" s="11"/>
+      <c r="D220" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E220" s="4">
+        <v>0</v>
+      </c>
       <c r="F220" s="13"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B221" s="20">
+        <v>0</v>
+      </c>
       <c r="C221" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D221" s="11"/>
+      <c r="D221" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E221" s="4">
+        <v>0</v>
+      </c>
       <c r="F221" s="13"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B222" s="20">
+        <v>0</v>
+      </c>
       <c r="C222" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D222" s="11"/>
+      <c r="D222" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" s="4">
+        <v>0</v>
+      </c>
       <c r="F222" s="13"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B223" s="20">
+        <v>0</v>
+      </c>
       <c r="C223" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D223" s="11"/>
+      <c r="D223" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E223" s="4">
+        <v>0</v>
+      </c>
       <c r="F223" s="13"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B224" s="20">
+        <v>0</v>
+      </c>
       <c r="C224" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D224" s="11"/>
+      <c r="D224" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E224" s="4">
+        <v>0</v>
+      </c>
       <c r="F224" s="13"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B225" s="20">
+        <v>0</v>
+      </c>
       <c r="C225" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D225" s="11"/>
+      <c r="D225" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E225" s="4">
+        <v>0</v>
+      </c>
       <c r="F225" s="13"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B226" s="20">
+        <v>0</v>
+      </c>
       <c r="C226" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D226" s="11"/>
+      <c r="D226" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" s="4">
+        <v>0</v>
+      </c>
       <c r="F226" s="13"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B227" s="20">
+        <v>0</v>
+      </c>
       <c r="C227" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D227" s="11"/>
+      <c r="D227" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E227" s="4">
+        <v>0</v>
+      </c>
       <c r="F227" s="13"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B228" s="20">
+        <v>0</v>
+      </c>
       <c r="C228" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D228" s="11"/>
+      <c r="D228" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E228" s="4">
+        <v>0</v>
+      </c>
       <c r="F228" s="13"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B229" s="20">
+        <v>0</v>
+      </c>
       <c r="C229" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D229" s="11"/>
+      <c r="D229" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E229" s="4">
+        <v>0</v>
+      </c>
       <c r="F229" s="13"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B230" s="20">
+        <v>0</v>
+      </c>
       <c r="C230" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D230" s="11"/>
+      <c r="D230" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" s="4">
+        <v>0</v>
+      </c>
       <c r="F230" s="13"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B231" s="20">
+        <v>0</v>
+      </c>
       <c r="C231" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D231" s="11"/>
+      <c r="D231" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231" s="4">
+        <v>0</v>
+      </c>
       <c r="F231" s="13"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B232" s="20">
+        <v>0</v>
+      </c>
       <c r="C232" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D232" s="11"/>
+      <c r="D232" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" s="4">
+        <v>0</v>
+      </c>
       <c r="F232" s="13"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B233" s="20">
+        <v>0</v>
+      </c>
       <c r="C233" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D233" s="11"/>
+      <c r="D233" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E233" s="4">
+        <v>0</v>
+      </c>
       <c r="F233" s="13"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B234" s="20">
+        <v>0</v>
+      </c>
       <c r="C234" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D234" s="11"/>
+      <c r="D234" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E234" s="4">
+        <v>0</v>
+      </c>
       <c r="F234" s="13"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B235" s="20">
+        <v>0</v>
+      </c>
       <c r="C235" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D235" s="11"/>
+      <c r="D235" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E235" s="4">
+        <v>0</v>
+      </c>
       <c r="F235" s="13"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B236" s="20">
+        <v>0</v>
+      </c>
       <c r="C236" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D236" s="11"/>
+      <c r="D236" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E236" s="4">
+        <v>0</v>
+      </c>
       <c r="F236" s="13"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B237" s="20">
+        <v>0</v>
+      </c>
       <c r="C237" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D237" s="11"/>
+      <c r="D237" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E237" s="4">
+        <v>0</v>
+      </c>
       <c r="F237" s="13"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B238" s="20">
+        <v>0</v>
+      </c>
       <c r="C238" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D238" s="11"/>
+      <c r="D238" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E238" s="4">
+        <v>0</v>
+      </c>
       <c r="F238" s="13"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B239" s="20">
+        <v>0</v>
+      </c>
       <c r="C239" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D239" s="11"/>
+      <c r="D239" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E239" s="4">
+        <v>0</v>
+      </c>
       <c r="F239" s="13"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B240" s="20">
+        <v>0</v>
+      </c>
       <c r="C240" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D240" s="11"/>
+      <c r="D240" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E240" s="4">
+        <v>0</v>
+      </c>
       <c r="F240" s="13"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="11" t="s">
         <v>61</v>
       </c>
+      <c r="B241" s="20">
+        <v>0</v>
+      </c>
       <c r="C241" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D241" s="11"/>
+      <c r="D241" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E241" s="4">
+        <v>0</v>
+      </c>
       <c r="F241" s="13"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B242" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C242" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D242" s="8"/>
+      <c r="D242" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E242" s="4">
+        <v>0</v>
+      </c>
       <c r="F242" s="10"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B243" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C243" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D243" s="8"/>
+      <c r="D243" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E243" s="4">
+        <v>0</v>
+      </c>
       <c r="F243" s="10"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B244" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C244" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D244" s="8"/>
+      <c r="D244" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E244" s="4">
+        <v>0</v>
+      </c>
       <c r="F244" s="10"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B245" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C245" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D245" s="8"/>
+      <c r="D245" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245" s="4">
+        <v>0</v>
+      </c>
       <c r="F245" s="10"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B246" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C246" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D246" s="8"/>
+      <c r="D246" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E246" s="4">
+        <v>0</v>
+      </c>
       <c r="F246" s="10"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B247" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C247" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D247" s="8"/>
+      <c r="D247" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E247" s="4">
+        <v>0</v>
+      </c>
       <c r="F247" s="10"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B248" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C248" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D248" s="8"/>
+      <c r="D248" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E248" s="4">
+        <v>0</v>
+      </c>
       <c r="F248" s="10"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B249" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C249" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D249" s="8"/>
+      <c r="D249" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E249" s="4">
+        <v>0</v>
+      </c>
       <c r="F249" s="10"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B250" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C250" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D250" s="8"/>
+      <c r="D250" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E250" s="4">
+        <v>0</v>
+      </c>
       <c r="F250" s="10"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B251" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C251" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D251" s="8"/>
+      <c r="D251" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E251" s="4">
+        <v>0</v>
+      </c>
       <c r="F251" s="10"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B252" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C252" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D252" s="8"/>
+      <c r="D252" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E252" s="4">
+        <v>0</v>
+      </c>
       <c r="F252" s="10"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B253" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C253" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D253" s="8"/>
+      <c r="D253" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E253" s="4">
+        <v>0</v>
+      </c>
       <c r="F253" s="10"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B254" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C254" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D254" s="8"/>
+      <c r="D254" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E254" s="4">
+        <v>0</v>
+      </c>
       <c r="F254" s="10"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B255" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C255" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D255" s="8"/>
+      <c r="D255" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" s="4">
+        <v>0</v>
+      </c>
       <c r="F255" s="10"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B256" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C256" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D256" s="8"/>
+      <c r="D256" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E256" s="4">
+        <v>0</v>
+      </c>
       <c r="F256" s="10"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B257" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C257" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D257" s="8"/>
+      <c r="D257" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E257" s="4">
+        <v>0</v>
+      </c>
       <c r="F257" s="10"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B258" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C258" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D258" s="8"/>
+      <c r="D258" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E258" s="4">
+        <v>0</v>
+      </c>
       <c r="F258" s="10"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B259" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C259" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="8"/>
+      <c r="D259" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E259" s="4">
+        <v>0</v>
+      </c>
       <c r="F259" s="10"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B260" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C260" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D260" s="8"/>
+      <c r="D260" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E260" s="4">
+        <v>0</v>
+      </c>
       <c r="F260" s="10"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B261" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C261" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D261" s="8"/>
+      <c r="D261" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E261" s="4">
+        <v>0</v>
+      </c>
       <c r="F261" s="10"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B262" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C262" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D262" s="8"/>
+      <c r="D262" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" s="4">
+        <v>0</v>
+      </c>
       <c r="F262" s="10"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B263" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C263" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D263" s="8"/>
+      <c r="D263" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E263" s="4">
+        <v>0</v>
+      </c>
       <c r="F263" s="10"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B264" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C264" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D264" s="8"/>
+      <c r="D264" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E264" s="4">
+        <v>0</v>
+      </c>
       <c r="F264" s="10"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="B265" s="20">
+        <v>0.25</v>
+      </c>
       <c r="C265" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D265" s="8"/>
+      <c r="D265" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E265" s="4">
+        <v>0</v>
+      </c>
       <c r="F265" s="10"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B266" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C266" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D266" s="11"/>
+      <c r="D266" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E266" s="4">
+        <v>0</v>
+      </c>
       <c r="F266" s="13"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B267" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C267" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D267" s="11"/>
+      <c r="D267" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E267" s="4">
+        <v>0</v>
+      </c>
       <c r="F267" s="13"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B268" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C268" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D268" s="11"/>
+      <c r="D268" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E268" s="4">
+        <v>0</v>
+      </c>
       <c r="F268" s="13"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B269" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C269" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D269" s="11"/>
+      <c r="D269" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E269" s="4">
+        <v>0</v>
+      </c>
       <c r="F269" s="13"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B270" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C270" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D270" s="11"/>
+      <c r="D270" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" s="4">
+        <v>0</v>
+      </c>
       <c r="F270" s="13"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B271" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C271" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D271" s="11"/>
+      <c r="D271" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271" s="4">
+        <v>0</v>
+      </c>
       <c r="F271" s="13"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B272" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C272" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D272" s="11"/>
+      <c r="D272" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" s="4">
+        <v>0</v>
+      </c>
       <c r="F272" s="13"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B273" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C273" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D273" s="11"/>
+      <c r="D273" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="4">
+        <v>0</v>
+      </c>
       <c r="F273" s="13"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B274" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C274" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D274" s="11"/>
+      <c r="D274" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" s="4">
+        <v>0</v>
+      </c>
       <c r="F274" s="13"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B275" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C275" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D275" s="11"/>
+      <c r="D275" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E275" s="4">
+        <v>0</v>
+      </c>
       <c r="F275" s="13"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B276" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C276" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D276" s="11"/>
+      <c r="D276" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" s="4">
+        <v>0</v>
+      </c>
       <c r="F276" s="13"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B277" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C277" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D277" s="11"/>
+      <c r="D277" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277" s="4">
+        <v>0</v>
+      </c>
       <c r="F277" s="13"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B278" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C278" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D278" s="11"/>
+      <c r="D278" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" s="4">
+        <v>0</v>
+      </c>
       <c r="F278" s="13"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B279" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C279" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D279" s="11"/>
+      <c r="D279" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" s="4">
+        <v>0</v>
+      </c>
       <c r="F279" s="13"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B280" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C280" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D280" s="11"/>
+      <c r="D280" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E280" s="4">
+        <v>0</v>
+      </c>
       <c r="F280" s="13"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B281" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C281" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D281" s="11"/>
+      <c r="D281" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" s="4">
+        <v>0</v>
+      </c>
       <c r="F281" s="13"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B282" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C282" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D282" s="11"/>
+      <c r="D282" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E282" s="4">
+        <v>0</v>
+      </c>
       <c r="F282" s="13"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B283" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C283" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D283" s="11"/>
+      <c r="D283" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283" s="4">
+        <v>0</v>
+      </c>
       <c r="F283" s="13"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B284" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C284" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D284" s="11"/>
+      <c r="D284" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" s="4">
+        <v>0</v>
+      </c>
       <c r="F284" s="13"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B285" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C285" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D285" s="11"/>
+      <c r="D285" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E285" s="4">
+        <v>0</v>
+      </c>
       <c r="F285" s="13"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B286" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C286" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D286" s="11"/>
+      <c r="D286" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E286" s="4">
+        <v>0</v>
+      </c>
       <c r="F286" s="13"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B287" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C287" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D287" s="11"/>
+      <c r="D287" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E287" s="4">
+        <v>0</v>
+      </c>
       <c r="F287" s="13"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B288" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C288" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D288" s="11"/>
+      <c r="D288" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" s="4">
+        <v>0</v>
+      </c>
       <c r="F288" s="13"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B289" s="20">
+        <v>0.5</v>
+      </c>
       <c r="C289" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D289" s="11"/>
+      <c r="D289" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E289" s="4">
+        <v>0</v>
+      </c>
       <c r="F289" s="13"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B290" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C290" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D290" s="8"/>
+      <c r="D290" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E290" s="4">
+        <v>0</v>
+      </c>
       <c r="F290" s="10"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B291" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C291" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D291" s="8"/>
+      <c r="D291" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" s="4">
+        <v>0</v>
+      </c>
       <c r="F291" s="10"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B292" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C292" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D292" s="8"/>
+      <c r="D292" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292" s="4">
+        <v>0</v>
+      </c>
       <c r="F292" s="10"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B293" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C293" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D293" s="8"/>
+      <c r="D293" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" s="4">
+        <v>0</v>
+      </c>
       <c r="F293" s="10"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B294" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C294" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D294" s="8"/>
+      <c r="D294" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" s="4">
+        <v>0</v>
+      </c>
       <c r="F294" s="10"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B295" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C295" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D295" s="8"/>
+      <c r="D295" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E295" s="4">
+        <v>0</v>
+      </c>
       <c r="F295" s="10"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B296" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C296" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D296" s="8"/>
+      <c r="D296" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E296" s="4">
+        <v>0</v>
+      </c>
       <c r="F296" s="10"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B297" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C297" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D297" s="8"/>
+      <c r="D297" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E297" s="4">
+        <v>0</v>
+      </c>
       <c r="F297" s="10"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B298" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C298" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D298" s="8"/>
+      <c r="D298" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E298" s="4">
+        <v>0</v>
+      </c>
       <c r="F298" s="10"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B299" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C299" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D299" s="8"/>
+      <c r="D299" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E299" s="4">
+        <v>0</v>
+      </c>
       <c r="F299" s="10"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B300" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C300" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D300" s="8"/>
+      <c r="D300" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" s="4">
+        <v>0</v>
+      </c>
       <c r="F300" s="10"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B301" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C301" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D301" s="8"/>
+      <c r="D301" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" s="4">
+        <v>0</v>
+      </c>
       <c r="F301" s="10"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B302" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C302" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D302" s="8"/>
+      <c r="D302" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E302" s="4">
+        <v>0</v>
+      </c>
       <c r="F302" s="10"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B303" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C303" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D303" s="8"/>
+      <c r="D303" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" s="4">
+        <v>0</v>
+      </c>
       <c r="F303" s="10"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B304" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C304" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D304" s="8"/>
+      <c r="D304" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" s="4">
+        <v>0</v>
+      </c>
       <c r="F304" s="10"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B305" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C305" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D305" s="8"/>
+      <c r="D305" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" s="4">
+        <v>0</v>
+      </c>
       <c r="F305" s="10"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B306" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C306" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D306" s="8"/>
+      <c r="D306" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E306" s="4">
+        <v>0</v>
+      </c>
       <c r="F306" s="10"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B307" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C307" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D307" s="8"/>
+      <c r="D307" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E307" s="4">
+        <v>0</v>
+      </c>
       <c r="F307" s="10"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B308" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C308" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D308" s="8"/>
+      <c r="D308" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" s="4">
+        <v>0</v>
+      </c>
       <c r="F308" s="10"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B309" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C309" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D309" s="8"/>
+      <c r="D309" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" s="4">
+        <v>0</v>
+      </c>
       <c r="F309" s="10"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B310" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C310" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D310" s="8"/>
+      <c r="D310" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" s="4">
+        <v>0</v>
+      </c>
       <c r="F310" s="10"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B311" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C311" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D311" s="8"/>
+      <c r="D311" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E311" s="4">
+        <v>0</v>
+      </c>
       <c r="F311" s="10"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B312" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C312" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D312" s="8"/>
+      <c r="D312" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E312" s="4">
+        <v>0</v>
+      </c>
       <c r="F312" s="10"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="B313" s="20">
+        <v>0.75</v>
+      </c>
       <c r="C313" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D313" s="8"/>
+      <c r="D313" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" s="4">
+        <v>0</v>
+      </c>
       <c r="F313" s="10"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B314" s="20">
+        <v>1</v>
+      </c>
       <c r="C314" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D314" s="11"/>
+      <c r="D314" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" s="4">
+        <v>0</v>
+      </c>
       <c r="F314" s="13"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B315" s="20">
+        <v>1</v>
+      </c>
       <c r="C315" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D315" s="11"/>
+      <c r="D315" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E315" s="4">
+        <v>0</v>
+      </c>
       <c r="F315" s="13"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B316" s="20">
+        <v>1</v>
+      </c>
       <c r="C316" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D316" s="11"/>
+      <c r="D316" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" s="4">
+        <v>0</v>
+      </c>
       <c r="F316" s="13"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B317" s="20">
+        <v>1</v>
+      </c>
       <c r="C317" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D317" s="11"/>
+      <c r="D317" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" s="4">
+        <v>0</v>
+      </c>
       <c r="F317" s="13"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B318" s="20">
+        <v>1</v>
+      </c>
       <c r="C318" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D318" s="11"/>
+      <c r="D318" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E318" s="4">
+        <v>0</v>
+      </c>
       <c r="F318" s="13"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B319" s="20">
+        <v>1</v>
+      </c>
       <c r="C319" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D319" s="11"/>
+      <c r="D319" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E319" s="4">
+        <v>0</v>
+      </c>
       <c r="F319" s="13"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B320" s="20">
+        <v>1</v>
+      </c>
       <c r="C320" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D320" s="11"/>
+      <c r="D320" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E320" s="4">
+        <v>0</v>
+      </c>
       <c r="F320" s="13"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B321" s="20">
+        <v>1</v>
+      </c>
       <c r="C321" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D321" s="11"/>
+      <c r="D321" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E321" s="4">
+        <v>0</v>
+      </c>
       <c r="F321" s="13"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B322" s="20">
+        <v>1</v>
+      </c>
       <c r="C322" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D322" s="11"/>
+      <c r="D322" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E322" s="4">
+        <v>0</v>
+      </c>
       <c r="F322" s="13"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B323" s="20">
+        <v>1</v>
+      </c>
       <c r="C323" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D323" s="11"/>
+      <c r="D323" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E323" s="4">
+        <v>0</v>
+      </c>
       <c r="F323" s="13"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B324" s="20">
+        <v>1</v>
+      </c>
       <c r="C324" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D324" s="11"/>
+      <c r="D324" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E324" s="4">
+        <v>0</v>
+      </c>
       <c r="F324" s="13"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B325" s="20">
+        <v>1</v>
+      </c>
       <c r="C325" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D325" s="11"/>
+      <c r="D325" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E325" s="4">
+        <v>0</v>
+      </c>
       <c r="F325" s="13"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B326" s="20">
+        <v>1</v>
+      </c>
       <c r="C326" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D326" s="11"/>
+      <c r="D326" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326" s="4">
+        <v>0</v>
+      </c>
       <c r="F326" s="13"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B327" s="20">
+        <v>1</v>
+      </c>
       <c r="C327" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D327" s="11"/>
+      <c r="D327" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" s="4">
+        <v>0</v>
+      </c>
       <c r="F327" s="13"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B328" s="20">
+        <v>1</v>
+      </c>
       <c r="C328" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D328" s="11"/>
+      <c r="D328" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E328" s="4">
+        <v>0</v>
+      </c>
       <c r="F328" s="13"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B329" s="20">
+        <v>1</v>
+      </c>
       <c r="C329" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D329" s="11"/>
+      <c r="D329" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E329" s="4">
+        <v>0</v>
+      </c>
       <c r="F329" s="13"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B330" s="20">
+        <v>1</v>
+      </c>
       <c r="C330" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D330" s="11"/>
+      <c r="D330" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E330" s="4">
+        <v>0</v>
+      </c>
       <c r="F330" s="13"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B331" s="20">
+        <v>1</v>
+      </c>
       <c r="C331" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D331" s="11"/>
+      <c r="D331" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E331" s="4">
+        <v>0</v>
+      </c>
       <c r="F331" s="13"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B332" s="20">
+        <v>1</v>
+      </c>
       <c r="C332" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D332" s="11"/>
+      <c r="D332" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332" s="4">
+        <v>0</v>
+      </c>
       <c r="F332" s="13"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B333" s="20">
+        <v>1</v>
+      </c>
       <c r="C333" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D333" s="11"/>
+      <c r="D333" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" s="4">
+        <v>0</v>
+      </c>
       <c r="F333" s="13"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B334" s="20">
+        <v>1</v>
+      </c>
       <c r="C334" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D334" s="11"/>
+      <c r="D334" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E334" s="4">
+        <v>0</v>
+      </c>
       <c r="F334" s="13"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B335" s="20">
+        <v>1</v>
+      </c>
       <c r="C335" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D335" s="11"/>
+      <c r="D335" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E335" s="4">
+        <v>0</v>
+      </c>
       <c r="F335" s="13"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B336" s="20">
+        <v>1</v>
+      </c>
       <c r="C336" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D336" s="11"/>
+      <c r="D336" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E336" s="4">
+        <v>0</v>
+      </c>
       <c r="F336" s="13"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
         <v>65</v>
       </c>
+      <c r="B337" s="20">
+        <v>1</v>
+      </c>
       <c r="C337" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D337" s="11"/>
+      <c r="D337" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" s="4">
+        <v>0</v>
+      </c>
       <c r="F337" s="13"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B338" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C338" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D338" s="8"/>
+      <c r="D338" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E338" s="4">
+        <v>0</v>
+      </c>
       <c r="F338" s="10"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B339" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C339" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D339" s="8"/>
+      <c r="D339" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E339" s="4">
+        <v>0</v>
+      </c>
       <c r="F339" s="10"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B340" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C340" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D340" s="8"/>
+      <c r="D340" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" s="4">
+        <v>0</v>
+      </c>
       <c r="F340" s="10"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B341" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C341" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D341" s="8"/>
+      <c r="D341" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E341" s="4">
+        <v>0</v>
+      </c>
       <c r="F341" s="10"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B342" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C342" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D342" s="8"/>
+      <c r="D342" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E342" s="4">
+        <v>0</v>
+      </c>
       <c r="F342" s="10"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B343" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C343" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D343" s="8"/>
+      <c r="D343" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E343" s="4">
+        <v>0</v>
+      </c>
       <c r="F343" s="10"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B344" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C344" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D344" s="8"/>
+      <c r="D344" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E344" s="4">
+        <v>0</v>
+      </c>
       <c r="F344" s="10"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B345" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C345" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D345" s="8"/>
+      <c r="D345" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E345" s="4">
+        <v>0</v>
+      </c>
       <c r="F345" s="10"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B346" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C346" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D346" s="8"/>
+      <c r="D346" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E346" s="4">
+        <v>0</v>
+      </c>
       <c r="F346" s="10"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B347" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C347" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D347" s="8"/>
+      <c r="D347" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E347" s="4">
+        <v>0</v>
+      </c>
       <c r="F347" s="10"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B348" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C348" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D348" s="8"/>
+      <c r="D348" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E348" s="4">
+        <v>0</v>
+      </c>
       <c r="F348" s="10"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B349" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C349" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D349" s="8"/>
+      <c r="D349" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E349" s="4">
+        <v>0</v>
+      </c>
       <c r="F349" s="10"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B350" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C350" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D350" s="8"/>
+      <c r="D350" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E350" s="4">
+        <v>0</v>
+      </c>
       <c r="F350" s="10"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B351" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C351" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D351" s="8"/>
+      <c r="D351" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E351" s="4">
+        <v>0</v>
+      </c>
       <c r="F351" s="10"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B352" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C352" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D352" s="8"/>
+      <c r="D352" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E352" s="4">
+        <v>0</v>
+      </c>
       <c r="F352" s="10"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B353" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C353" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D353" s="8"/>
+      <c r="D353" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E353" s="4">
+        <v>0</v>
+      </c>
       <c r="F353" s="10"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B354" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C354" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D354" s="8"/>
+      <c r="D354" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E354" s="4">
+        <v>0</v>
+      </c>
       <c r="F354" s="10"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B355" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C355" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D355" s="8"/>
+      <c r="D355" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E355" s="4">
+        <v>0</v>
+      </c>
       <c r="F355" s="10"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B356" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C356" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D356" s="8"/>
+      <c r="D356" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E356" s="4">
+        <v>0</v>
+      </c>
       <c r="F356" s="10"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B357" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C357" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D357" s="8"/>
+      <c r="D357" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E357" s="4">
+        <v>0</v>
+      </c>
       <c r="F357" s="10"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B358" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C358" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D358" s="8"/>
+      <c r="D358" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E358" s="4">
+        <v>0</v>
+      </c>
       <c r="F358" s="10"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B359" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C359" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D359" s="8"/>
+      <c r="D359" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E359" s="4">
+        <v>0</v>
+      </c>
       <c r="F359" s="10"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B360" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C360" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D360" s="8"/>
+      <c r="D360" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E360" s="4">
+        <v>0</v>
+      </c>
       <c r="F360" s="10"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B361" s="20">
+        <v>1.25</v>
+      </c>
       <c r="C361" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D361" s="8"/>
+      <c r="D361" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E361" s="4">
+        <v>0</v>
+      </c>
       <c r="F361" s="10"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B362" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C362" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D362" s="11"/>
+      <c r="D362" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E362" s="4">
+        <v>0</v>
+      </c>
       <c r="F362" s="13"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B363" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C363" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D363" s="11"/>
+      <c r="D363" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E363" s="4">
+        <v>0</v>
+      </c>
       <c r="F363" s="13"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B364" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C364" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D364" s="11"/>
+      <c r="D364" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E364" s="4">
+        <v>0</v>
+      </c>
       <c r="F364" s="13"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B365" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C365" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D365" s="11"/>
+      <c r="D365" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E365" s="4">
+        <v>0</v>
+      </c>
       <c r="F365" s="13"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B366" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C366" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D366" s="11"/>
+      <c r="D366" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E366" s="4">
+        <v>0</v>
+      </c>
       <c r="F366" s="13"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B367" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C367" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D367" s="11"/>
+      <c r="D367" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E367" s="4">
+        <v>0</v>
+      </c>
       <c r="F367" s="13"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B368" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C368" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D368" s="11"/>
+      <c r="D368" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E368" s="4">
+        <v>0</v>
+      </c>
       <c r="F368" s="13"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B369" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C369" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D369" s="11"/>
+      <c r="D369" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E369" s="4">
+        <v>0</v>
+      </c>
       <c r="F369" s="13"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B370" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C370" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D370" s="11"/>
+      <c r="D370" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" s="4">
+        <v>0</v>
+      </c>
       <c r="F370" s="13"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B371" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C371" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D371" s="11"/>
+      <c r="D371" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E371" s="4">
+        <v>0</v>
+      </c>
       <c r="F371" s="13"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B372" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C372" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D372" s="11"/>
+      <c r="D372" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E372" s="4">
+        <v>0</v>
+      </c>
       <c r="F372" s="13"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B373" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C373" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D373" s="11"/>
+      <c r="D373" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E373" s="4">
+        <v>0</v>
+      </c>
       <c r="F373" s="13"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B374" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C374" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D374" s="11"/>
+      <c r="D374" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E374" s="4">
+        <v>0</v>
+      </c>
       <c r="F374" s="13"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B375" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C375" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D375" s="11"/>
+      <c r="D375" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E375" s="4">
+        <v>0</v>
+      </c>
       <c r="F375" s="13"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B376" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C376" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D376" s="11"/>
+      <c r="D376" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E376" s="4">
+        <v>0</v>
+      </c>
       <c r="F376" s="13"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B377" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C377" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D377" s="11"/>
+      <c r="D377" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E377" s="4">
+        <v>0</v>
+      </c>
       <c r="F377" s="13"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B378" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C378" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D378" s="11"/>
+      <c r="D378" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E378" s="4">
+        <v>0</v>
+      </c>
       <c r="F378" s="13"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B379" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C379" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D379" s="11"/>
+      <c r="D379" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E379" s="4">
+        <v>0</v>
+      </c>
       <c r="F379" s="13"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B380" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C380" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D380" s="11"/>
+      <c r="D380" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E380" s="4">
+        <v>0</v>
+      </c>
       <c r="F380" s="13"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B381" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C381" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D381" s="11"/>
+      <c r="D381" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E381" s="4">
+        <v>0</v>
+      </c>
       <c r="F381" s="13"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B382" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C382" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D382" s="11"/>
+      <c r="D382" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E382" s="4">
+        <v>0</v>
+      </c>
       <c r="F382" s="13"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B383" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C383" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D383" s="11"/>
+      <c r="D383" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E383" s="4">
+        <v>0</v>
+      </c>
       <c r="F383" s="13"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B384" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C384" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D384" s="11"/>
+      <c r="D384" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E384" s="4">
+        <v>0</v>
+      </c>
       <c r="F384" s="13"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="11" t="s">
         <v>67</v>
       </c>
+      <c r="B385" s="20">
+        <v>1.5</v>
+      </c>
       <c r="C385" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D385" s="11"/>
+      <c r="D385" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E385" s="4">
+        <v>0</v>
+      </c>
       <c r="F385" s="13"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B386" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C386" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D386" s="8"/>
+      <c r="D386" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E386" s="4">
+        <v>0</v>
+      </c>
       <c r="F386" s="10"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B387" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C387" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D387" s="8"/>
+      <c r="D387" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E387" s="4">
+        <v>0</v>
+      </c>
       <c r="F387" s="10"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B388" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C388" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D388" s="8"/>
+      <c r="D388" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E388" s="4">
+        <v>0</v>
+      </c>
       <c r="F388" s="10"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B389" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C389" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D389" s="8"/>
+      <c r="D389" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E389" s="4">
+        <v>0</v>
+      </c>
       <c r="F389" s="10"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B390" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C390" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D390" s="8"/>
+      <c r="D390" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E390" s="4">
+        <v>0</v>
+      </c>
       <c r="F390" s="10"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B391" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C391" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D391" s="8"/>
+      <c r="D391" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E391" s="4">
+        <v>0</v>
+      </c>
       <c r="F391" s="10"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B392" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C392" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D392" s="8"/>
+      <c r="D392" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E392" s="4">
+        <v>0</v>
+      </c>
       <c r="F392" s="10"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B393" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C393" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D393" s="8"/>
+      <c r="D393" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E393" s="4">
+        <v>0</v>
+      </c>
       <c r="F393" s="10"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B394" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C394" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D394" s="8"/>
+      <c r="D394" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E394" s="4">
+        <v>0</v>
+      </c>
       <c r="F394" s="10"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B395" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C395" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D395" s="8"/>
+      <c r="D395" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E395" s="4">
+        <v>0</v>
+      </c>
       <c r="F395" s="10"/>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B396" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C396" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D396" s="8"/>
+      <c r="D396" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E396" s="4">
+        <v>0</v>
+      </c>
       <c r="F396" s="10"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B397" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C397" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D397" s="8"/>
+      <c r="D397" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E397" s="4">
+        <v>0</v>
+      </c>
       <c r="F397" s="10"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B398" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C398" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D398" s="8"/>
+      <c r="D398" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E398" s="4">
+        <v>0</v>
+      </c>
       <c r="F398" s="10"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B399" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C399" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D399" s="8"/>
+      <c r="D399" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E399" s="4">
+        <v>0</v>
+      </c>
       <c r="F399" s="10"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B400" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C400" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D400" s="8"/>
+      <c r="D400" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E400" s="4">
+        <v>0</v>
+      </c>
       <c r="F400" s="10"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B401" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C401" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D401" s="8"/>
+      <c r="D401" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E401" s="4">
+        <v>0</v>
+      </c>
       <c r="F401" s="10"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B402" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C402" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D402" s="8"/>
+      <c r="D402" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E402" s="4">
+        <v>0</v>
+      </c>
       <c r="F402" s="10"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B403" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C403" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D403" s="8"/>
+      <c r="D403" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E403" s="4">
+        <v>0</v>
+      </c>
       <c r="F403" s="10"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B404" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C404" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D404" s="8"/>
+      <c r="D404" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E404" s="4">
+        <v>0</v>
+      </c>
       <c r="F404" s="10"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B405" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C405" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D405" s="8"/>
+      <c r="D405" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E405" s="4">
+        <v>0</v>
+      </c>
       <c r="F405" s="10"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B406" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C406" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D406" s="8"/>
+      <c r="D406" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E406" s="4">
+        <v>0</v>
+      </c>
       <c r="F406" s="10"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B407" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C407" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D407" s="8"/>
+      <c r="D407" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E407" s="4">
+        <v>0</v>
+      </c>
       <c r="F407" s="10"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B408" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C408" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D408" s="8"/>
+      <c r="D408" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E408" s="4">
+        <v>0</v>
+      </c>
       <c r="F408" s="10"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="8" t="s">
         <v>68</v>
       </c>
+      <c r="B409" s="20">
+        <v>1.75</v>
+      </c>
       <c r="C409" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D409" s="8"/>
+      <c r="D409" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E409" s="4">
+        <v>0</v>
+      </c>
       <c r="F409" s="10"/>
     </row>
   </sheetData>

--- a/State Table.xlsx
+++ b/State Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="110">
   <si>
     <t>INPUT</t>
   </si>
@@ -312,6 +312,48 @@
   </si>
   <si>
     <t>1111-0100</t>
+  </si>
+  <si>
+    <t>0000-0011</t>
+  </si>
+  <si>
+    <t>0010-0011</t>
+  </si>
+  <si>
+    <t>0001-0010</t>
+  </si>
+  <si>
+    <t>0100-0000</t>
+  </si>
+  <si>
+    <t>1111-0011</t>
+  </si>
+  <si>
+    <t>0000-0101</t>
+  </si>
+  <si>
+    <t>1111-0101</t>
+  </si>
+  <si>
+    <t>0001-0100</t>
+  </si>
+  <si>
+    <t>0100-0010</t>
+  </si>
+  <si>
+    <t>0010-0100</t>
+  </si>
+  <si>
+    <t>1000-0010</t>
+  </si>
+  <si>
+    <t>0000-0110</t>
+  </si>
+  <si>
+    <t>0001-0101</t>
+  </si>
+  <si>
+    <t>0100-0011</t>
   </si>
 </sst>
 </file>
@@ -734,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="I224" sqref="I224"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1855,7 +1897,9 @@
       <c r="E38" s="4">
         <v>0.75</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="13" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
@@ -1873,7 +1917,9 @@
       <c r="E39" s="4">
         <v>0.5</v>
       </c>
-      <c r="F39" s="13"/>
+      <c r="F39" s="13" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
@@ -1891,7 +1937,9 @@
       <c r="E40" s="4">
         <v>0.25</v>
       </c>
-      <c r="F40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
@@ -1909,7 +1957,9 @@
       <c r="E41" s="4">
         <v>0</v>
       </c>
-      <c r="F41" s="13"/>
+      <c r="F41" s="13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
@@ -1927,7 +1977,9 @@
       <c r="E42" s="4">
         <v>0.75</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="13" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
@@ -1945,7 +1997,9 @@
       <c r="E43" s="4">
         <v>0</v>
       </c>
-      <c r="F43" s="13"/>
+      <c r="F43" s="13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
@@ -1963,7 +2017,9 @@
       <c r="E44" s="4">
         <v>1.25</v>
       </c>
-      <c r="F44" s="13"/>
+      <c r="F44" s="13" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
@@ -1981,7 +2037,9 @@
       <c r="E45" s="4">
         <v>1</v>
       </c>
-      <c r="F45" s="13"/>
+      <c r="F45" s="13" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
@@ -1999,7 +2057,9 @@
       <c r="E46" s="4">
         <v>0.75</v>
       </c>
-      <c r="F46" s="13"/>
+      <c r="F46" s="13" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
@@ -2017,7 +2077,9 @@
       <c r="E47" s="4">
         <v>0.5</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="13" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
@@ -2035,7 +2097,9 @@
       <c r="E48" s="4">
         <v>0.25</v>
       </c>
-      <c r="F48" s="13"/>
+      <c r="F48" s="13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
@@ -2053,7 +2117,9 @@
       <c r="E49" s="4">
         <v>0</v>
       </c>
-      <c r="F49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
@@ -2071,7 +2137,9 @@
       <c r="E50" s="4">
         <v>0.5</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
@@ -2089,7 +2157,9 @@
       <c r="E51" s="4">
         <v>0.25</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
@@ -2107,7 +2177,9 @@
       <c r="E52" s="4">
         <v>0</v>
       </c>
-      <c r="F52" s="10"/>
+      <c r="F52" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
@@ -2125,7 +2197,9 @@
       <c r="E53" s="4">
         <v>0.5</v>
       </c>
-      <c r="F53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
@@ -2143,7 +2217,9 @@
       <c r="E54" s="4">
         <v>0.5</v>
       </c>
-      <c r="F54" s="10"/>
+      <c r="F54" s="10" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
@@ -2161,7 +2237,9 @@
       <c r="E55" s="4">
         <v>0</v>
       </c>
-      <c r="F55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
@@ -2179,7 +2257,9 @@
       <c r="E56" s="4">
         <v>0.75</v>
       </c>
-      <c r="F56" s="10"/>
+      <c r="F56" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
@@ -2197,7 +2277,9 @@
       <c r="E57" s="4">
         <v>0.5</v>
       </c>
-      <c r="F57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -2215,7 +2297,9 @@
       <c r="E58" s="4">
         <v>0.25</v>
       </c>
-      <c r="F58" s="10"/>
+      <c r="F58" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
@@ -2233,7 +2317,9 @@
       <c r="E59" s="4">
         <v>0</v>
       </c>
-      <c r="F59" s="10"/>
+      <c r="F59" s="10" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
@@ -2249,9 +2335,11 @@
         <v>23</v>
       </c>
       <c r="E60" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F60" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
@@ -2269,7 +2357,9 @@
       <c r="E61" s="4">
         <v>0</v>
       </c>
-      <c r="F61" s="10"/>
+      <c r="F61" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
@@ -2287,7 +2377,9 @@
       <c r="E62" s="4">
         <v>1</v>
       </c>
-      <c r="F62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -2305,7 +2397,9 @@
       <c r="E63" s="4">
         <v>0.75</v>
       </c>
-      <c r="F63" s="10"/>
+      <c r="F63" s="10" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
@@ -2323,7 +2417,9 @@
       <c r="E64" s="4">
         <v>0.5</v>
       </c>
-      <c r="F64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
@@ -2341,7 +2437,9 @@
       <c r="E65" s="4">
         <v>0.25</v>
       </c>
-      <c r="F65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
@@ -2359,7 +2457,9 @@
       <c r="E66" s="4">
         <v>0</v>
       </c>
-      <c r="F66" s="10"/>
+      <c r="F66" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
@@ -2377,7 +2477,9 @@
       <c r="E67" s="4">
         <v>0</v>
       </c>
-      <c r="F67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
@@ -2395,7 +2497,9 @@
       <c r="E68" s="4">
         <v>1.5</v>
       </c>
-      <c r="F68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
@@ -2413,7 +2517,9 @@
       <c r="E69" s="4">
         <v>1.25</v>
       </c>
-      <c r="F69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
@@ -2431,7 +2537,9 @@
       <c r="E70" s="4">
         <v>1</v>
       </c>
-      <c r="F70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
@@ -2449,7 +2557,9 @@
       <c r="E71" s="4">
         <v>0.75</v>
       </c>
-      <c r="F71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
@@ -2467,7 +2577,9 @@
       <c r="E72" s="4">
         <v>0.5</v>
       </c>
-      <c r="F72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
@@ -2485,7 +2597,9 @@
       <c r="E73" s="4">
         <v>0</v>
       </c>
-      <c r="F73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">

--- a/State Table.xlsx
+++ b/State Table.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -988,15 +987,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1084,6 +1074,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9174,7 +9173,7 @@
   <dimension ref="A1:U409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9200,35 +9199,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="87" t="s">
         <v>110</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="88" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="39">
@@ -9249,27 +9248,27 @@
       <c r="G2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="75" t="s">
+      <c r="K2" s="112"/>
+      <c r="L2" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="75" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="76"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="112"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="88" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="39">
@@ -9290,7 +9289,7 @@
       <c r="G3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="89" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="60" t="s">
@@ -9299,13 +9298,13 @@
       <c r="K3" s="61">
         <v>0</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="L3" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="81" t="s">
+      <c r="N3" s="78" t="s">
         <v>80</v>
       </c>
       <c r="O3" s="70" t="s">
@@ -9322,7 +9321,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="88" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="39">
@@ -9343,7 +9342,7 @@
       <c r="G4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="89" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="60" t="s">
@@ -9375,7 +9374,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="88" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="39">
@@ -9396,7 +9395,7 @@
       <c r="G5" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="89" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="60" t="s">
@@ -9428,7 +9427,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="90" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="42">
@@ -9449,7 +9448,7 @@
       <c r="G6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="94" t="s">
+      <c r="H6" s="91" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="60" t="s">
@@ -9481,7 +9480,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="39">
@@ -9502,7 +9501,7 @@
       <c r="G7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="89" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="60" t="s">
@@ -9534,7 +9533,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="39">
@@ -9555,13 +9554,13 @@
       <c r="G8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="92" t="s">
+      <c r="H8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="75" t="s">
+      <c r="J8" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="76"/>
+      <c r="K8" s="112"/>
       <c r="L8" s="62" t="s">
         <v>22</v>
       </c>
@@ -9585,7 +9584,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="39">
@@ -9606,19 +9605,19 @@
       <c r="G9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="89" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="76"/>
+      <c r="M9" s="112"/>
       <c r="N9" s="4"/>
       <c r="O9" s="60" t="s">
         <v>26</v>
@@ -9634,7 +9633,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="39">
@@ -9655,7 +9654,7 @@
       <c r="G10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="89" t="s">
         <v>71</v>
       </c>
       <c r="J10" s="63" t="s">
@@ -9684,7 +9683,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="39">
@@ -9705,7 +9704,7 @@
       <c r="G11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="89" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="64" t="s">
@@ -9734,7 +9733,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="92" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="47">
@@ -9755,7 +9754,7 @@
       <c r="G12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="93" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="60" t="s">
@@ -9774,7 +9773,7 @@
       <c r="R12" s="66"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="39">
@@ -9795,7 +9794,7 @@
       <c r="G13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="95" t="s">
         <v>13</v>
       </c>
       <c r="L13" s="60" t="s">
@@ -9807,7 +9806,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="39">
@@ -9828,7 +9827,7 @@
       <c r="G14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="98" t="s">
+      <c r="H14" s="95" t="s">
         <v>70</v>
       </c>
       <c r="L14" s="60" t="s">
@@ -9840,7 +9839,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="39">
@@ -9861,10 +9860,10 @@
       <c r="G15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="98" t="s">
+      <c r="H15" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="85" t="s">
+      <c r="J15" s="82" t="s">
         <v>116</v>
       </c>
       <c r="L15" s="60" t="s">
@@ -9876,7 +9875,7 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="39">
@@ -9897,10 +9896,10 @@
       <c r="G16" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="98" t="s">
+      <c r="H16" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="82" t="s">
+      <c r="J16" s="79" t="s">
         <v>117</v>
       </c>
       <c r="L16" s="60" t="s">
@@ -9912,7 +9911,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="39">
@@ -9933,10 +9932,10 @@
       <c r="G17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="98" t="s">
+      <c r="H17" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="83" t="s">
+      <c r="J17" s="80" t="s">
         <v>118</v>
       </c>
       <c r="L17" s="60" t="s">
@@ -9948,7 +9947,7 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="96" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="45">
@@ -9969,10 +9968,10 @@
       <c r="G18" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="100" t="s">
+      <c r="H18" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="84" t="s">
+      <c r="J18" s="81" t="s">
         <v>119</v>
       </c>
       <c r="L18" s="62" t="s">
@@ -9984,7 +9983,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="98" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="47">
@@ -10005,7 +10004,7 @@
       <c r="G19" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="96" t="s">
+      <c r="H19" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1"/>
@@ -10014,7 +10013,7 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="94" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="39">
@@ -10035,14 +10034,14 @@
       <c r="G20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="98" t="s">
+      <c r="H20" s="95" t="s">
         <v>70</v>
       </c>
       <c r="I20" s="1"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="94" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="39">
@@ -10063,13 +10062,13 @@
       <c r="G21" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="98" t="s">
+      <c r="H21" s="95" t="s">
         <v>14</v>
       </c>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="94" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="39">
@@ -10090,13 +10089,13 @@
       <c r="G22" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="98" t="s">
+      <c r="H22" s="95" t="s">
         <v>71</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="97" t="s">
+      <c r="A23" s="94" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="39">
@@ -10117,13 +10116,13 @@
       <c r="G23" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="98" t="s">
+      <c r="H23" s="95" t="s">
         <v>73</v>
       </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="94" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="39">
@@ -10144,13 +10143,13 @@
       <c r="G24" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="98" t="s">
+      <c r="H24" s="95" t="s">
         <v>70</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="96" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="45">
@@ -10171,13 +10170,13 @@
       <c r="G25" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="100" t="s">
+      <c r="H25" s="97" t="s">
         <v>13</v>
       </c>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="96" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="45">
@@ -10198,13 +10197,13 @@
       <c r="G26" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="100" t="s">
+      <c r="H26" s="97" t="s">
         <v>12</v>
       </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="99" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="47">
@@ -10225,13 +10224,13 @@
       <c r="G27" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="100" t="s">
         <v>11</v>
       </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="94" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="39">
@@ -10252,13 +10251,13 @@
       <c r="G28" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="98" t="s">
+      <c r="H28" s="95" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="97" t="s">
+      <c r="A29" s="94" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="39">
@@ -10279,13 +10278,13 @@
       <c r="G29" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="H29" s="95" t="s">
         <v>71</v>
       </c>
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="94" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="39">
@@ -10306,14 +10305,14 @@
       <c r="G30" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="98" t="s">
+      <c r="H30" s="95" t="s">
         <v>72</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="94" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="39">
@@ -10334,12 +10333,12 @@
       <c r="G31" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="98" t="s">
+      <c r="H31" s="95" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="94" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="39">
@@ -10360,12 +10359,12 @@
       <c r="G32" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="95" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="101" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="45">
@@ -10386,12 +10385,12 @@
       <c r="G33" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="100" t="s">
+      <c r="H33" s="97" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="101" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="45">
@@ -10412,12 +10411,12 @@
       <c r="G34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="100" t="s">
+      <c r="H34" s="97" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="101" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="45">
@@ -10438,12 +10437,12 @@
       <c r="G35" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="100" t="s">
+      <c r="H35" s="97" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="47">
@@ -10464,12 +10463,12 @@
       <c r="G36" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="103" t="s">
+      <c r="H36" s="100" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="94" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="39">
@@ -10490,12 +10489,12 @@
       <c r="G37" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="98" t="s">
+      <c r="H37" s="95" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="94" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="39">
@@ -10516,12 +10515,12 @@
       <c r="G38" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="98" t="s">
+      <c r="H38" s="95" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="94" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="39">
@@ -10542,12 +10541,12 @@
       <c r="G39" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="98" t="s">
+      <c r="H39" s="95" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="105" t="s">
+      <c r="A40" s="102" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="36">
@@ -10566,10 +10565,10 @@
       <c r="G40" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="106"/>
+      <c r="H40" s="103"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="94" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="39">
@@ -10590,12 +10589,12 @@
       <c r="G41" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="98" t="s">
+      <c r="H41" s="95" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="104" t="s">
+      <c r="A42" s="101" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="45">
@@ -10616,12 +10615,12 @@
       <c r="G42" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="100" t="s">
+      <c r="H42" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="104" t="s">
+      <c r="A43" s="101" t="s">
         <v>26</v>
       </c>
       <c r="B43" s="45">
@@ -10642,12 +10641,12 @@
       <c r="G43" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="100" t="s">
+      <c r="H43" s="97" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="104" t="s">
+      <c r="A44" s="101" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="45">
@@ -10668,12 +10667,12 @@
       <c r="G44" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="100" t="s">
+      <c r="H44" s="97" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="92" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="47">
@@ -10694,12 +10693,12 @@
       <c r="G45" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="103" t="s">
+      <c r="H45" s="100" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="97" t="s">
+      <c r="A46" s="94" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="39">
@@ -10720,12 +10719,12 @@
       <c r="G46" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="98" t="s">
+      <c r="H46" s="95" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="94" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="39">
@@ -10746,12 +10745,12 @@
       <c r="G47" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="98" t="s">
+      <c r="H47" s="95" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="94" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="39">
@@ -10772,12 +10771,12 @@
       <c r="G48" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="98" t="s">
+      <c r="H48" s="95" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="105" t="s">
+      <c r="A49" s="102" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="36">
@@ -10796,10 +10795,10 @@
       <c r="G49" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="106"/>
+      <c r="H49" s="103"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="97" t="s">
+      <c r="A50" s="94" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="39">
@@ -10820,12 +10819,12 @@
       <c r="G50" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="98" t="s">
+      <c r="H50" s="95" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="101" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="45">
@@ -10846,12 +10845,12 @@
       <c r="G51" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="100" t="s">
+      <c r="H51" s="97" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="101" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="45">
@@ -10872,12 +10871,12 @@
       <c r="G52" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="100" t="s">
+      <c r="H52" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="101" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="45">
@@ -10898,12 +10897,12 @@
       <c r="G53" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="100" t="s">
+      <c r="H53" s="97" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="95" t="s">
+      <c r="A54" s="92" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="47">
@@ -10924,12 +10923,12 @@
       <c r="G54" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="103" t="s">
+      <c r="H54" s="100" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="97" t="s">
+      <c r="A55" s="94" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="39">
@@ -10950,12 +10949,12 @@
       <c r="G55" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="98" t="s">
+      <c r="H55" s="95" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="94" t="s">
         <v>28</v>
       </c>
       <c r="B56" s="39">
@@ -10976,12 +10975,12 @@
       <c r="G56" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="98" t="s">
+      <c r="H56" s="95" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="105" t="s">
+      <c r="A57" s="102" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="36">
@@ -11000,10 +10999,10 @@
       <c r="G57" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="106"/>
+      <c r="H57" s="103"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="105" t="s">
+      <c r="A58" s="102" t="s">
         <v>28</v>
       </c>
       <c r="B58" s="36">
@@ -11022,10 +11021,10 @@
       <c r="G58" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="106"/>
+      <c r="H58" s="103"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="94" t="s">
         <v>28</v>
       </c>
       <c r="B59" s="39">
@@ -11046,12 +11045,12 @@
       <c r="G59" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="98" t="s">
+      <c r="H59" s="95" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="104" t="s">
+      <c r="A60" s="101" t="s">
         <v>28</v>
       </c>
       <c r="B60" s="45">
@@ -11072,12 +11071,12 @@
       <c r="G60" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H60" s="100" t="s">
+      <c r="H60" s="97" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="104" t="s">
+      <c r="A61" s="101" t="s">
         <v>28</v>
       </c>
       <c r="B61" s="45">
@@ -11098,12 +11097,12 @@
       <c r="G61" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H61" s="100" t="s">
+      <c r="H61" s="97" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="101" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="45">
@@ -11124,12 +11123,12 @@
       <c r="G62" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H62" s="100" t="s">
+      <c r="H62" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="95" t="s">
+      <c r="A63" s="92" t="s">
         <v>28</v>
       </c>
       <c r="B63" s="47">
@@ -11150,12 +11149,12 @@
       <c r="G63" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="103" t="s">
+      <c r="H63" s="100" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="97" t="s">
+      <c r="A64" s="94" t="s">
         <v>29</v>
       </c>
       <c r="B64" s="39">
@@ -11176,12 +11175,12 @@
       <c r="G64" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="98" t="s">
+      <c r="H64" s="95" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="105" t="s">
+      <c r="A65" s="102" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="36">
@@ -11200,10 +11199,10 @@
       <c r="G65" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="106"/>
+      <c r="H65" s="103"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="105" t="s">
+      <c r="A66" s="102" t="s">
         <v>29</v>
       </c>
       <c r="B66" s="36">
@@ -11222,10 +11221,10 @@
       <c r="G66" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="106"/>
+      <c r="H66" s="103"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="105" t="s">
+      <c r="A67" s="102" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="36">
@@ -11244,10 +11243,10 @@
       <c r="G67" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="106"/>
+      <c r="H67" s="103"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="97" t="s">
+      <c r="A68" s="94" t="s">
         <v>29</v>
       </c>
       <c r="B68" s="39">
@@ -11268,12 +11267,12 @@
       <c r="G68" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="98" t="s">
+      <c r="H68" s="95" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B69" s="45">
@@ -11294,12 +11293,12 @@
       <c r="G69" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="100" t="s">
+      <c r="H69" s="97" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="45">
@@ -11320,12 +11319,12 @@
       <c r="G70" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="100" t="s">
+      <c r="H70" s="97" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="104" t="s">
+      <c r="A71" s="101" t="s">
         <v>29</v>
       </c>
       <c r="B71" s="45">
@@ -11346,33 +11345,33 @@
       <c r="G71" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="100" t="s">
+      <c r="H71" s="97" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="107" t="s">
+      <c r="A72" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B72" s="108">
+      <c r="B72" s="105">
         <v>2</v>
       </c>
-      <c r="C72" s="109" t="s">
+      <c r="C72" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="110" t="s">
+      <c r="D72" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="111" t="s">
+      <c r="E72" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="F72" s="108">
+      <c r="F72" s="105">
         <v>1</v>
       </c>
-      <c r="G72" s="109" t="s">
+      <c r="G72" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="112" t="s">
+      <c r="H72" s="109" t="s">
         <v>14</v>
       </c>
     </row>

--- a/State Table.xlsx
+++ b/State Table.xlsx
@@ -9173,7 +9173,7 @@
   <dimension ref="A1:U409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/State Table.xlsx
+++ b/State Table.xlsx
@@ -1109,15 +1109,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1251,6 +1242,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9341,8 +9341,8 @@
   <dimension ref="A1:U409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9355,7 +9355,7 @@
     <col min="6" max="6" width="9.7109375" style="30" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="33" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="103" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="100" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
@@ -9392,7 +9392,7 @@
       <c r="H1" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="99" t="s">
         <v>121</v>
       </c>
       <c r="T1" s="5"/>
@@ -9423,24 +9423,24 @@
       <c r="H2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="103">
-        <v>0</v>
-      </c>
-      <c r="J2" s="99" t="s">
+      <c r="I2" s="100">
+        <v>0</v>
+      </c>
+      <c r="J2" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="99" t="s">
+      <c r="K2" s="146"/>
+      <c r="L2" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="99" t="s">
+      <c r="M2" s="145"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="101"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="146"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
@@ -9467,7 +9467,7 @@
       <c r="H3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="103">
+      <c r="I3" s="100">
         <v>0</v>
       </c>
       <c r="J3" s="57" t="s">
@@ -9523,7 +9523,7 @@
       <c r="H4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="100">
         <v>0</v>
       </c>
       <c r="J4" s="57" t="s">
@@ -9579,7 +9579,7 @@
       <c r="H5" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="100">
         <v>0</v>
       </c>
       <c r="J5" s="57" t="s">
@@ -9635,7 +9635,7 @@
       <c r="H6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="100">
         <v>0</v>
       </c>
       <c r="J6" s="57" t="s">
@@ -9691,7 +9691,7 @@
       <c r="H7" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="100">
         <v>0</v>
       </c>
       <c r="J7" s="57" t="s">
@@ -9747,13 +9747,13 @@
       <c r="H8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="103">
-        <v>0</v>
-      </c>
-      <c r="J8" s="99" t="s">
+      <c r="I8" s="100">
+        <v>0</v>
+      </c>
+      <c r="J8" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="101"/>
+      <c r="K8" s="146"/>
       <c r="L8" s="59" t="s">
         <v>22</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="H9" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="100">
         <v>0</v>
       </c>
       <c r="J9" s="71" t="s">
@@ -9810,10 +9810,10 @@
       <c r="K9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="99" t="s">
+      <c r="L9" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="101"/>
+      <c r="M9" s="146"/>
       <c r="N9" s="4"/>
       <c r="O9" s="57" t="s">
         <v>26</v>
@@ -9853,7 +9853,7 @@
       <c r="H10" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="103">
+      <c r="I10" s="100">
         <v>1</v>
       </c>
       <c r="J10" s="60" t="s">
@@ -9906,7 +9906,7 @@
       <c r="H11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="100">
         <v>0</v>
       </c>
       <c r="J11" s="61" t="s">
@@ -9959,7 +9959,7 @@
       <c r="H12" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="103">
+      <c r="I12" s="100">
         <v>1</v>
       </c>
       <c r="L12" s="57" t="s">
@@ -10002,7 +10002,7 @@
       <c r="H13" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="103">
+      <c r="I13" s="100">
         <v>0</v>
       </c>
       <c r="L13" s="57" t="s">
@@ -10038,7 +10038,7 @@
       <c r="H14" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="103">
+      <c r="I14" s="100">
         <v>0</v>
       </c>
       <c r="L14" s="57" t="s">
@@ -10074,7 +10074,7 @@
       <c r="H15" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="103">
+      <c r="I15" s="100">
         <v>0</v>
       </c>
       <c r="J15" s="79" t="s">
@@ -10113,7 +10113,7 @@
       <c r="H16" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="103">
+      <c r="I16" s="100">
         <v>1</v>
       </c>
       <c r="J16" s="76" t="s">
@@ -10152,7 +10152,7 @@
       <c r="H17" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="103">
+      <c r="I17" s="100">
         <v>0</v>
       </c>
       <c r="J17" s="77" t="s">
@@ -10191,7 +10191,7 @@
       <c r="H18" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="103">
+      <c r="I18" s="100">
         <v>1</v>
       </c>
       <c r="J18" s="78" t="s">
@@ -10230,7 +10230,7 @@
       <c r="H19" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="104">
+      <c r="I19" s="101">
         <v>1</v>
       </c>
       <c r="J19" s="4"/>
@@ -10262,7 +10262,7 @@
       <c r="H20" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="104">
+      <c r="I20" s="101">
         <v>0</v>
       </c>
       <c r="N20" s="4"/>
@@ -10292,7 +10292,7 @@
       <c r="H21" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="103">
+      <c r="I21" s="100">
         <v>0</v>
       </c>
       <c r="N21" s="4"/>
@@ -10311,7 +10311,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F22" s="36">
         <v>0.25</v>
@@ -10322,7 +10322,7 @@
       <c r="H22" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="103">
+      <c r="I22" s="100">
         <v>1</v>
       </c>
       <c r="N22" s="4"/>
@@ -10352,7 +10352,7 @@
       <c r="H23" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="103">
+      <c r="I23" s="100">
         <v>1</v>
       </c>
       <c r="N23" s="4"/>
@@ -10382,7 +10382,7 @@
       <c r="H24" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="103">
+      <c r="I24" s="100">
         <v>0</v>
       </c>
       <c r="N24" s="4"/>
@@ -10412,7 +10412,7 @@
       <c r="H25" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="103">
+      <c r="I25" s="100">
         <v>1</v>
       </c>
       <c r="N25" s="4"/>
@@ -10442,7 +10442,7 @@
       <c r="H26" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="103">
+      <c r="I26" s="100">
         <v>1</v>
       </c>
       <c r="N26" s="4"/>
@@ -10472,7 +10472,7 @@
       <c r="H27" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="103">
+      <c r="I27" s="100">
         <v>1</v>
       </c>
       <c r="N27" s="4"/>
@@ -10502,7 +10502,7 @@
       <c r="H28" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="103">
+      <c r="I28" s="100">
         <v>0</v>
       </c>
       <c r="N28" s="4"/>
@@ -10521,7 +10521,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F29" s="36">
         <v>0.25</v>
@@ -10532,7 +10532,7 @@
       <c r="H29" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="103">
+      <c r="I29" s="100">
         <v>1</v>
       </c>
       <c r="N29" s="4"/>
@@ -10551,7 +10551,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F30" s="36">
         <v>0.5</v>
@@ -10562,7 +10562,7 @@
       <c r="H30" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="103">
+      <c r="I30" s="100">
         <v>1</v>
       </c>
       <c r="M30" s="1"/>
@@ -10593,7 +10593,7 @@
       <c r="H31" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="103">
+      <c r="I31" s="100">
         <v>1</v>
       </c>
     </row>
@@ -10622,7 +10622,7 @@
       <c r="H32" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="103">
+      <c r="I32" s="100">
         <v>0</v>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
       <c r="H33" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="103">
+      <c r="I33" s="100">
         <v>1</v>
       </c>
     </row>
@@ -10680,7 +10680,7 @@
       <c r="H34" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="103">
+      <c r="I34" s="100">
         <v>1</v>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
       <c r="H35" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="103">
+      <c r="I35" s="100">
         <v>1</v>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       <c r="H36" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="103">
+      <c r="I36" s="100">
         <v>1</v>
       </c>
     </row>
@@ -10747,10 +10747,10 @@
         <v>120</v>
       </c>
       <c r="B37" s="36"/>
-      <c r="C37" s="142" t="s">
+      <c r="C37" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="143" t="s">
+      <c r="D37" s="140" t="s">
         <v>125</v>
       </c>
       <c r="E37" s="50" t="s">
@@ -10759,13 +10759,13 @@
       <c r="F37" s="36">
         <v>0.25</v>
       </c>
-      <c r="G37" s="142" t="s">
+      <c r="G37" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H37" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="103">
+      <c r="I37" s="100">
         <v>0</v>
       </c>
     </row>
@@ -10774,10 +10774,10 @@
         <v>122</v>
       </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="142" t="s">
+      <c r="C38" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="143" t="s">
+      <c r="D38" s="140" t="s">
         <v>125</v>
       </c>
       <c r="E38" s="50" t="s">
@@ -10786,13 +10786,13 @@
       <c r="F38" s="36">
         <v>0.5</v>
       </c>
-      <c r="G38" s="142" t="s">
+      <c r="G38" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H38" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="103">
+      <c r="I38" s="100">
         <v>0</v>
       </c>
     </row>
@@ -10801,10 +10801,10 @@
         <v>123</v>
       </c>
       <c r="B39" s="36"/>
-      <c r="C39" s="142" t="s">
+      <c r="C39" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="143" t="s">
+      <c r="D39" s="140" t="s">
         <v>125</v>
       </c>
       <c r="E39" s="50" t="s">
@@ -10813,362 +10813,362 @@
       <c r="F39" s="36">
         <v>0.75</v>
       </c>
-      <c r="G39" s="142" t="s">
+      <c r="G39" s="139" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="I39" s="103">
+      <c r="I39" s="100">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="105" t="s">
+      <c r="A40" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="106"/>
-      <c r="C40" s="145" t="s">
+      <c r="B40" s="103"/>
+      <c r="C40" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="144" t="s">
+      <c r="D40" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="106" t="s">
+      <c r="E40" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="106">
+      <c r="F40" s="103">
         <v>1</v>
       </c>
-      <c r="G40" s="145" t="s">
+      <c r="G40" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="146" t="s">
+      <c r="H40" s="143" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="103">
+      <c r="I40" s="100">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="137"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="141"/>
+      <c r="A41" s="134"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="138"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="112"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="118"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="115"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="112"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="118"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="110"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="115"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="112"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="118"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="115"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="119"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="121"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="124"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="118"/>
+      <c r="H45" s="121"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="111"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="108"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="111"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="108"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="107"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="111"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="108"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="126"/>
-      <c r="B49" s="127"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="130"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="127"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="111"/>
+      <c r="A50" s="104"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="106"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="108"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="112"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="114"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="118"/>
+      <c r="A51" s="109"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="115"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="112"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="118"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="110"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="115"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="118"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="115"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="119"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="124"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="121"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="107"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="109"/>
-      <c r="D55" s="110"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="111"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="105"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="108"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="107"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="109"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="111"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="108"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="126"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="130"/>
+      <c r="A57" s="123"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="126"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="127"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="126"/>
-      <c r="B58" s="127"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="130"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="124"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="127"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="107"/>
-      <c r="B59" s="108"/>
-      <c r="C59" s="109"/>
-      <c r="D59" s="110"/>
-      <c r="E59" s="108"/>
-      <c r="F59" s="108"/>
-      <c r="G59" s="109"/>
-      <c r="H59" s="111"/>
+      <c r="A59" s="104"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="108"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="112"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="114"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="118"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="115"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="112"/>
-      <c r="B61" s="113"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="116"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="118"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="115"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="112"/>
-      <c r="B62" s="113"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="115"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="113"/>
-      <c r="G62" s="117"/>
-      <c r="H62" s="118"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="110"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="115"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="119"/>
-      <c r="B63" s="120"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="124"/>
+      <c r="A63" s="116"/>
+      <c r="B63" s="117"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="121"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="107"/>
-      <c r="B64" s="108"/>
-      <c r="C64" s="109"/>
-      <c r="D64" s="110"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="108"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="111"/>
+      <c r="A64" s="104"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="108"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="126"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="127"/>
-      <c r="F65" s="127"/>
-      <c r="G65" s="128"/>
-      <c r="H65" s="130"/>
+      <c r="A65" s="123"/>
+      <c r="B65" s="124"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="124"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="127"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="126"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="128"/>
-      <c r="H66" s="130"/>
+      <c r="A66" s="123"/>
+      <c r="B66" s="124"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="127"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="126"/>
-      <c r="B67" s="127"/>
-      <c r="C67" s="128"/>
-      <c r="D67" s="129"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="128"/>
-      <c r="H67" s="130"/>
+      <c r="A67" s="123"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="127"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
-      <c r="B68" s="108"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="110"/>
-      <c r="E68" s="108"/>
-      <c r="F68" s="108"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="111"/>
+      <c r="A68" s="104"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="108"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="112"/>
-      <c r="B69" s="113"/>
-      <c r="C69" s="114"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="116"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="118"/>
+      <c r="A69" s="109"/>
+      <c r="B69" s="110"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="110"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="115"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="112"/>
-      <c r="B70" s="113"/>
-      <c r="C70" s="117"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="116"/>
-      <c r="F70" s="113"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="118"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="114"/>
+      <c r="H70" s="115"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="112"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="117"/>
-      <c r="D71" s="115"/>
-      <c r="E71" s="116"/>
-      <c r="F71" s="113"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="118"/>
+      <c r="A71" s="109"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="114"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="110"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="115"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="131"/>
-      <c r="B72" s="132"/>
-      <c r="C72" s="133"/>
-      <c r="D72" s="134"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="133"/>
-      <c r="H72" s="136"/>
+      <c r="A72" s="128"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="132"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="133"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>

--- a/State Table.xlsx
+++ b/State Table.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="126">
   <si>
     <t>INPUT</t>
   </si>
@@ -384,9 +385,6 @@
     <t>Purchase</t>
   </si>
   <si>
-    <t>Not allowed</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -404,6 +402,9 @@
   <si>
     <t>xxxx</t>
   </si>
+  <si>
+    <t>Return</t>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +474,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -517,7 +524,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,7 +920,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1050,7 +1057,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="24" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1116,12 +1122,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1229,21 +1229,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,6 +1238,49 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -9341,8 +9369,8 @@
   <dimension ref="A1:U409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9355,7 +9383,7 @@
     <col min="6" max="6" width="9.7109375" style="30" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="33" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="100" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="99" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
@@ -9368,38 +9396,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="99" t="s">
-        <v>121</v>
+      <c r="I1" s="98" t="s">
+        <v>120</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="36">
@@ -9420,30 +9448,30 @@
       <c r="G2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="100">
-        <v>0</v>
-      </c>
-      <c r="J2" s="144" t="s">
+      <c r="I2" s="99">
+        <v>0</v>
+      </c>
+      <c r="J2" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="146"/>
-      <c r="L2" s="144" t="s">
+      <c r="K2" s="138"/>
+      <c r="L2" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="145"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="144" t="s">
+      <c r="M2" s="137"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="146"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="36">
@@ -9464,10 +9492,10 @@
       <c r="G3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="100">
+      <c r="I3" s="99">
         <v>0</v>
       </c>
       <c r="J3" s="57" t="s">
@@ -9499,7 +9527,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="36">
@@ -9520,10 +9548,10 @@
       <c r="G4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="100">
+      <c r="I4" s="99">
         <v>0</v>
       </c>
       <c r="J4" s="57" t="s">
@@ -9547,15 +9575,11 @@
       <c r="P4" s="18">
         <v>0</v>
       </c>
-      <c r="Q4" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="R4" s="58">
-        <v>0</v>
-      </c>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="58"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="36">
@@ -9576,10 +9600,10 @@
       <c r="G5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="100">
+      <c r="I5" s="99">
         <v>0</v>
       </c>
       <c r="J5" s="57" t="s">
@@ -9603,15 +9627,11 @@
       <c r="P5" s="18">
         <v>0.25</v>
       </c>
-      <c r="Q5" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="58">
-        <v>0.25</v>
-      </c>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="58"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="39">
@@ -9632,10 +9652,10 @@
       <c r="G6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="100">
+      <c r="I6" s="99">
         <v>0</v>
       </c>
       <c r="J6" s="57" t="s">
@@ -9659,15 +9679,11 @@
       <c r="P6" s="18">
         <v>0.5</v>
       </c>
-      <c r="Q6" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="R6" s="58">
-        <v>0.5</v>
-      </c>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="58"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="36">
@@ -9688,10 +9704,10 @@
       <c r="G7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="99">
         <v>0</v>
       </c>
       <c r="J7" s="57" t="s">
@@ -9715,15 +9731,11 @@
       <c r="P7" s="18">
         <v>0.75</v>
       </c>
-      <c r="Q7" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="58">
-        <v>0.75</v>
-      </c>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="58"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="36">
@@ -9744,16 +9756,16 @@
       <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="100">
-        <v>0</v>
-      </c>
-      <c r="J8" s="144" t="s">
+      <c r="I8" s="99">
+        <v>0</v>
+      </c>
+      <c r="J8" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="146"/>
+      <c r="K8" s="138"/>
       <c r="L8" s="59" t="s">
         <v>22</v>
       </c>
@@ -9769,15 +9781,11 @@
       <c r="P8" s="18">
         <v>1</v>
       </c>
-      <c r="Q8" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" s="58">
-        <v>1</v>
-      </c>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="58"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="36">
@@ -9798,10 +9806,10 @@
       <c r="G9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="100">
+      <c r="I9" s="99">
         <v>0</v>
       </c>
       <c r="J9" s="71" t="s">
@@ -9810,50 +9818,42 @@
       <c r="K9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="144" t="s">
+      <c r="L9" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="146"/>
+      <c r="M9" s="138"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="18">
-        <v>1.25</v>
-      </c>
-      <c r="Q9" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="R9" s="58">
-        <v>1.25</v>
-      </c>
+      <c r="O9" s="57"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="140">
         <v>0.25</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="36">
+      <c r="E10" s="143" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="140">
         <v>0.25</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="100">
+      <c r="I10" s="99">
         <v>1</v>
       </c>
       <c r="J10" s="60" t="s">
@@ -9868,21 +9868,13 @@
       <c r="M10" s="58">
         <v>0</v>
       </c>
-      <c r="O10" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="R10" s="58">
-        <v>1.5</v>
-      </c>
+      <c r="O10" s="57"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="58"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="36">
@@ -9903,10 +9895,10 @@
       <c r="G11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="100">
+      <c r="I11" s="99">
         <v>0</v>
       </c>
       <c r="J11" s="61" t="s">
@@ -9921,21 +9913,13 @@
       <c r="M11" s="58">
         <v>0.25</v>
       </c>
-      <c r="O11" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="18">
-        <v>1.75</v>
-      </c>
-      <c r="Q11" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="58">
-        <v>1.75</v>
-      </c>
+      <c r="O11" s="57"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="58"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="44">
@@ -9947,8 +9931,8 @@
       <c r="D12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>61</v>
+      <c r="E12" s="53" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="44">
         <v>0</v>
@@ -9956,10 +9940,10 @@
       <c r="G12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="90" t="s">
+      <c r="H12" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="100">
+      <c r="I12" s="99">
         <v>1</v>
       </c>
       <c r="L12" s="57" t="s">
@@ -9968,17 +9952,13 @@
       <c r="M12" s="58">
         <v>0.5</v>
       </c>
-      <c r="O12" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="69">
-        <v>2</v>
-      </c>
+      <c r="O12" s="59"/>
+      <c r="P12" s="69"/>
       <c r="Q12" s="66"/>
       <c r="R12" s="63"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="90" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="36">
@@ -9999,10 +9979,10 @@
       <c r="G13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="100">
+      <c r="I13" s="99">
         <v>0</v>
       </c>
       <c r="L13" s="57" t="s">
@@ -10014,7 +9994,7 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="90" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="36">
@@ -10035,10 +10015,10 @@
       <c r="G14" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="100">
+      <c r="I14" s="99">
         <v>0</v>
       </c>
       <c r="L14" s="57" t="s">
@@ -10050,7 +10030,7 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="90" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="36">
@@ -10071,64 +10051,56 @@
       <c r="G15" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="H15" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="100">
-        <v>0</v>
-      </c>
-      <c r="J15" s="79" t="s">
+      <c r="I15" s="99">
+        <v>0</v>
+      </c>
+      <c r="J15" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="L15" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="58">
-        <v>1.25</v>
-      </c>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="140">
         <v>0.5</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="36">
+      <c r="E16" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="140">
         <v>0.5</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="100">
+      <c r="I16" s="99">
         <v>1</v>
       </c>
       <c r="J16" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="L16" s="57" t="s">
-        <v>72</v>
-      </c>
-      <c r="M16" s="58">
-        <v>1.5</v>
-      </c>
+      <c r="L16" s="57"/>
+      <c r="M16" s="58"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="36">
@@ -10149,25 +10121,21 @@
       <c r="G17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="100">
+      <c r="I17" s="99">
         <v>0</v>
       </c>
       <c r="J17" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="L17" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="58">
-        <v>1.75</v>
-      </c>
+      <c r="L17" s="57"/>
+      <c r="M17" s="58"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="92" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="42">
@@ -10180,7 +10148,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F18" s="42">
         <v>0.25</v>
@@ -10188,25 +10156,21 @@
       <c r="G18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="94" t="s">
+      <c r="H18" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="100">
+      <c r="I18" s="99">
         <v>1</v>
       </c>
-      <c r="J18" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="L18" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="63">
-        <v>2</v>
-      </c>
+      <c r="J18" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="59"/>
+      <c r="M18" s="63"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="94" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="44">
@@ -10218,8 +10182,8 @@
       <c r="D19" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>61</v>
+      <c r="E19" s="53" t="s">
+        <v>4</v>
       </c>
       <c r="F19" s="44">
         <v>0</v>
@@ -10227,10 +10191,10 @@
       <c r="G19" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="90" t="s">
+      <c r="H19" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="101">
+      <c r="I19" s="100">
         <v>1</v>
       </c>
       <c r="J19" s="4"/>
@@ -10238,7 +10202,7 @@
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="36">
@@ -10259,16 +10223,16 @@
       <c r="G20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="92" t="s">
+      <c r="H20" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="101">
+      <c r="I20" s="100">
         <v>0</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="36">
@@ -10289,76 +10253,76 @@
       <c r="G21" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="92" t="s">
+      <c r="H21" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="100">
+      <c r="I21" s="99">
         <v>0</v>
       </c>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="140">
         <v>0.75</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="36">
+      <c r="E22" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="140">
         <v>0.25</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="92" t="s">
+      <c r="H22" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="100">
+      <c r="I22" s="99">
         <v>1</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="140">
         <v>0.75</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="36">
+      <c r="E23" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="140">
         <v>0.75</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="144" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="100">
+      <c r="I23" s="99">
         <v>1</v>
       </c>
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="90" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="36">
@@ -10379,16 +10343,16 @@
       <c r="G24" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="100">
+      <c r="I24" s="99">
         <v>0</v>
       </c>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="92" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="42">
@@ -10401,7 +10365,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F25" s="42">
         <v>0.5</v>
@@ -10409,16 +10373,16 @@
       <c r="G25" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="94" t="s">
+      <c r="H25" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="100">
+      <c r="I25" s="99">
         <v>1</v>
       </c>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="92" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="42">
@@ -10431,7 +10395,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F26" s="42">
         <v>0.25</v>
@@ -10439,16 +10403,16 @@
       <c r="G26" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="94" t="s">
+      <c r="H26" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="100">
+      <c r="I26" s="99">
         <v>1</v>
       </c>
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="95" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="44">
@@ -10461,7 +10425,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F27" s="44">
         <v>0</v>
@@ -10469,16 +10433,16 @@
       <c r="G27" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="97" t="s">
+      <c r="H27" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="100">
+      <c r="I27" s="99">
         <v>1</v>
       </c>
       <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="90" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="36">
@@ -10499,106 +10463,106 @@
       <c r="G28" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="100">
+      <c r="I28" s="99">
         <v>0</v>
       </c>
       <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="140">
         <v>1</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="38" t="s">
+      <c r="D29" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F29" s="36">
+      <c r="E29" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="140">
         <v>0.25</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="100">
+      <c r="I29" s="99">
         <v>1</v>
       </c>
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="140">
         <v>1</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="36">
+      <c r="E30" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="F30" s="140">
         <v>0.5</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="92" t="s">
+      <c r="H30" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="100">
+      <c r="I30" s="99">
         <v>1</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="140">
         <v>1</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="36">
+      <c r="E31" s="143" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="140">
         <v>1</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="92" t="s">
+      <c r="H31" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="100">
+      <c r="I31" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="90" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="36">
@@ -10619,15 +10583,15 @@
       <c r="G32" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="92" t="s">
+      <c r="H32" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="100">
+      <c r="I32" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="42">
@@ -10640,7 +10604,7 @@
         <v>12</v>
       </c>
       <c r="E33" s="52" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F33" s="42">
         <v>0.75</v>
@@ -10648,15 +10612,15 @@
       <c r="G33" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="94" t="s">
+      <c r="H33" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="100">
+      <c r="I33" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="42">
@@ -10669,7 +10633,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="52" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F34" s="42">
         <v>0.5</v>
@@ -10677,15 +10641,15 @@
       <c r="G34" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="94" t="s">
+      <c r="H34" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="100">
+      <c r="I34" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="97" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="42">
@@ -10698,7 +10662,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="52" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F35" s="42">
         <v>0.25</v>
@@ -10706,15 +10670,15 @@
       <c r="G35" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="94" t="s">
+      <c r="H35" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="100">
+      <c r="I35" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="88" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="44">
@@ -10727,7 +10691,7 @@
         <v>15</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F36" s="44">
         <v>0</v>
@@ -10735,440 +10699,440 @@
       <c r="G36" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="97" t="s">
+      <c r="H36" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="100">
+      <c r="I36" s="99">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="50" t="s">
+      <c r="A37" s="145" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="140"/>
+      <c r="C37" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="140">
         <v>0.25</v>
       </c>
-      <c r="G37" s="139" t="s">
+      <c r="G37" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="92" t="s">
+      <c r="H37" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="100">
+      <c r="I37" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="145" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="140"/>
+      <c r="C38" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="140">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="146" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="144" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="G38" s="139" t="s">
+      <c r="B39" s="140"/>
+      <c r="C39" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="147" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="140">
+        <v>0.75</v>
+      </c>
+      <c r="G39" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
+      <c r="H39" s="144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="36"/>
-      <c r="C39" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="140" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="G39" s="139" t="s">
+      <c r="B40" s="149"/>
+      <c r="C40" s="150" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="149" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="149">
+        <v>1</v>
+      </c>
+      <c r="G40" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="142" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="103">
-        <v>1</v>
-      </c>
-      <c r="G40" s="142" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="143" t="s">
+      <c r="H40" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="100">
+      <c r="I40" s="99">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="138"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="135"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="112"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="114"/>
-      <c r="H42" s="115"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="112"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="114"/>
-      <c r="D43" s="112"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="114"/>
-      <c r="H43" s="115"/>
+      <c r="A43" s="106"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="111"/>
+      <c r="D43" s="109"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="111"/>
+      <c r="H43" s="112"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="114"/>
-      <c r="H44" s="115"/>
+      <c r="A44" s="106"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="112"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="116"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="118"/>
-      <c r="H45" s="121"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="114"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="118"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="104"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="108"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="105"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="104"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="108"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="119"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="105"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="104"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="108"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="119"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="105"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="123"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="127"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="121"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="124"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="108"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="105"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="115"/>
+      <c r="A51" s="106"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="112"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
-      <c r="B52" s="110"/>
-      <c r="C52" s="114"/>
-      <c r="D52" s="112"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="110"/>
-      <c r="G52" s="114"/>
-      <c r="H52" s="115"/>
+      <c r="A52" s="106"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="112"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="114"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="110"/>
-      <c r="G53" s="114"/>
-      <c r="H53" s="115"/>
+      <c r="A53" s="106"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="112"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
-      <c r="B54" s="117"/>
-      <c r="C54" s="118"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="121"/>
+      <c r="A54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="118"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="104"/>
-      <c r="B55" s="105"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="108"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="105"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="104"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="108"/>
+      <c r="A56" s="101"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="119"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="103"/>
+      <c r="H56" s="105"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="123"/>
-      <c r="B57" s="124"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="127"/>
+      <c r="A57" s="120"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="124"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="123"/>
-      <c r="B58" s="124"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="127"/>
+      <c r="A58" s="120"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="124"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="104"/>
-      <c r="B59" s="105"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="107"/>
-      <c r="E59" s="105"/>
-      <c r="F59" s="105"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="108"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="105"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="110"/>
-      <c r="C60" s="111"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="110"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="115"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="112"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="110"/>
-      <c r="C61" s="114"/>
-      <c r="D61" s="112"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="110"/>
-      <c r="G61" s="114"/>
-      <c r="H61" s="115"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="110"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="112"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
-      <c r="B62" s="110"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="115"/>
+      <c r="A62" s="106"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="107"/>
+      <c r="G62" s="111"/>
+      <c r="H62" s="112"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
-      <c r="B63" s="117"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="119"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="121"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="115"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="114"/>
+      <c r="G63" s="115"/>
+      <c r="H63" s="118"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="104"/>
-      <c r="B64" s="105"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="106"/>
-      <c r="H64" s="108"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="105"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="123"/>
-      <c r="B65" s="124"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="124"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="127"/>
+      <c r="A65" s="120"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="124"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="123"/>
-      <c r="B66" s="124"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="127"/>
+      <c r="A66" s="120"/>
+      <c r="B66" s="121"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="124"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="123"/>
-      <c r="B67" s="124"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="124"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="127"/>
+      <c r="A67" s="120"/>
+      <c r="B67" s="121"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="122"/>
+      <c r="H67" s="124"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="104"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="105"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="106"/>
-      <c r="H68" s="108"/>
+      <c r="A68" s="101"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="105"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="109"/>
-      <c r="B69" s="110"/>
-      <c r="C69" s="111"/>
-      <c r="D69" s="112"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="110"/>
-      <c r="G69" s="114"/>
-      <c r="H69" s="115"/>
+      <c r="A69" s="106"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="110"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="112"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
-      <c r="B70" s="110"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="112"/>
-      <c r="E70" s="113"/>
-      <c r="F70" s="110"/>
-      <c r="G70" s="114"/>
-      <c r="H70" s="115"/>
+      <c r="A70" s="106"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="111"/>
+      <c r="D70" s="109"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="111"/>
+      <c r="H70" s="112"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
-      <c r="B71" s="110"/>
-      <c r="C71" s="114"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="113"/>
-      <c r="F71" s="110"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="115"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="110"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="112"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="128"/>
-      <c r="B72" s="129"/>
-      <c r="C72" s="130"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="132"/>
-      <c r="F72" s="129"/>
-      <c r="G72" s="130"/>
-      <c r="H72" s="133"/>
+      <c r="A72" s="125"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="127"/>
+      <c r="D72" s="128"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="126"/>
+      <c r="G72" s="127"/>
+      <c r="H72" s="130"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
@@ -13667,4 +13631,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/State Table.xlsx
+++ b/State Table.xlsx
@@ -9369,8 +9369,8 @@
   <dimension ref="A1:U409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10404,7 +10404,7 @@
         <v>13</v>
       </c>
       <c r="H26" s="93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" s="99">
         <v>1</v>

--- a/State Table.xlsx
+++ b/State Table.xlsx
@@ -1229,15 +1229,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="33" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1281,6 +1272,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="8" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="5" builtinId="30"/>
@@ -9369,8 +9369,8 @@
   <dimension ref="A1:U409"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9454,21 +9454,21 @@
       <c r="I2" s="99">
         <v>0</v>
       </c>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="138"/>
-      <c r="L2" s="136" t="s">
+      <c r="K2" s="153"/>
+      <c r="L2" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="M2" s="137"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="136" t="s">
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="153"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
@@ -9762,10 +9762,10 @@
       <c r="I8" s="99">
         <v>0</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="K8" s="138"/>
+      <c r="K8" s="153"/>
       <c r="L8" s="59" t="s">
         <v>22</v>
       </c>
@@ -9818,10 +9818,10 @@
       <c r="K9" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="136" t="s">
+      <c r="L9" s="151" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="138"/>
+      <c r="M9" s="153"/>
       <c r="N9" s="4"/>
       <c r="O9" s="57"/>
       <c r="P9" s="18"/>
@@ -9829,28 +9829,28 @@
       <c r="R9" s="58"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="140">
+      <c r="B10" s="137">
         <v>0.25</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="142" t="s">
+      <c r="D10" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="140">
+      <c r="E10" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="137">
         <v>0.25</v>
       </c>
-      <c r="G10" s="141" t="s">
+      <c r="G10" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="144" t="s">
+      <c r="H10" s="141" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="99">
@@ -10065,28 +10065,28 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="140">
+      <c r="B16" s="137">
         <v>0.5</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="143" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="140">
+      <c r="E16" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" s="137">
         <v>0.5</v>
       </c>
-      <c r="G16" s="141" t="s">
+      <c r="G16" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="144" t="s">
+      <c r="H16" s="141" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="99">
@@ -10162,7 +10162,7 @@
       <c r="I18" s="99">
         <v>1</v>
       </c>
-      <c r="J18" s="153" t="s">
+      <c r="J18" s="150" t="s">
         <v>125</v>
       </c>
       <c r="L18" s="59"/>
@@ -10262,28 +10262,28 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="140">
+      <c r="B22" s="137">
         <v>0.75</v>
       </c>
-      <c r="C22" s="141" t="s">
+      <c r="C22" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="142" t="s">
+      <c r="D22" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="140">
+      <c r="E22" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="137">
         <v>0.25</v>
       </c>
-      <c r="G22" s="141" t="s">
+      <c r="G22" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="144" t="s">
+      <c r="H22" s="141" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="99">
@@ -10292,28 +10292,28 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="140">
+      <c r="B23" s="137">
         <v>0.75</v>
       </c>
-      <c r="C23" s="141" t="s">
+      <c r="C23" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="142" t="s">
+      <c r="D23" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="143" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="140">
+      <c r="E23" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="137">
         <v>0.75</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="144" t="s">
+      <c r="H23" s="141" t="s">
         <v>70</v>
       </c>
       <c r="I23" s="99">
@@ -10472,28 +10472,28 @@
       <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="140">
+      <c r="B29" s="137">
         <v>1</v>
       </c>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="142" t="s">
+      <c r="D29" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="143" t="s">
+      <c r="E29" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="140">
+      <c r="F29" s="137">
         <v>0.25</v>
       </c>
-      <c r="G29" s="141" t="s">
+      <c r="G29" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="144" t="s">
+      <c r="H29" s="141" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="99">
@@ -10502,28 +10502,28 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="140">
+      <c r="B30" s="137">
         <v>1</v>
       </c>
-      <c r="C30" s="141" t="s">
+      <c r="C30" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="143" t="s">
+      <c r="E30" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="140">
+      <c r="F30" s="137">
         <v>0.5</v>
       </c>
-      <c r="G30" s="141" t="s">
+      <c r="G30" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="144" t="s">
+      <c r="H30" s="141" t="s">
         <v>13</v>
       </c>
       <c r="I30" s="99">
@@ -10533,28 +10533,28 @@
       <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="145" t="s">
+      <c r="A31" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="140">
+      <c r="B31" s="137">
         <v>1</v>
       </c>
-      <c r="C31" s="141" t="s">
+      <c r="C31" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="142" t="s">
+      <c r="D31" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="143" t="s">
+      <c r="E31" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="F31" s="140">
+      <c r="F31" s="137">
         <v>1</v>
       </c>
-      <c r="G31" s="141" t="s">
+      <c r="G31" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="144" t="s">
+      <c r="H31" s="141" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="99">
@@ -10707,26 +10707,26 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="140"/>
-      <c r="C37" s="146" t="s">
+      <c r="B37" s="137"/>
+      <c r="C37" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="147" t="s">
+      <c r="D37" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="143" t="s">
+      <c r="E37" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="140">
+      <c r="F37" s="137">
         <v>0.25</v>
       </c>
-      <c r="G37" s="146" t="s">
+      <c r="G37" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="144" t="s">
+      <c r="H37" s="141" t="s">
         <v>12</v>
       </c>
       <c r="I37" s="99">
@@ -10734,26 +10734,26 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="145" t="s">
+      <c r="A38" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="140"/>
-      <c r="C38" s="146" t="s">
+      <c r="B38" s="137"/>
+      <c r="C38" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="147" t="s">
+      <c r="D38" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="143" t="s">
+      <c r="E38" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="140">
+      <c r="F38" s="137">
         <v>0.5</v>
       </c>
-      <c r="G38" s="146" t="s">
+      <c r="G38" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="144" t="s">
+      <c r="H38" s="141" t="s">
         <v>13</v>
       </c>
       <c r="I38" s="99">
@@ -10761,26 +10761,26 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="145" t="s">
+      <c r="A39" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="140"/>
-      <c r="C39" s="146" t="s">
+      <c r="B39" s="137"/>
+      <c r="C39" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="147" t="s">
+      <c r="D39" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="143" t="s">
+      <c r="E39" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="140">
+      <c r="F39" s="137">
         <v>0.75</v>
       </c>
-      <c r="G39" s="146" t="s">
+      <c r="G39" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="144" t="s">
+      <c r="H39" s="141" t="s">
         <v>70</v>
       </c>
       <c r="I39" s="99">
@@ -10788,26 +10788,26 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="148" t="s">
+      <c r="A40" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="149"/>
-      <c r="C40" s="150" t="s">
+      <c r="B40" s="146"/>
+      <c r="C40" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="D40" s="151" t="s">
+      <c r="D40" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="149" t="s">
+      <c r="E40" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="146">
         <v>1</v>
       </c>
-      <c r="G40" s="150" t="s">
+      <c r="G40" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="152" t="s">
+      <c r="H40" s="149" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="99">
